--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -1,21 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+  <si>
+    <t>Pembelian Barang</t>
+  </si>
+  <si>
+    <t>Utang Usaha</t>
+  </si>
+  <si>
+    <t>Persediaan</t>
+  </si>
+  <si>
+    <t>Kas/Bank</t>
+  </si>
+  <si>
+    <t>ACTIVA</t>
+  </si>
+  <si>
+    <t>PASIVA</t>
+  </si>
+  <si>
+    <t>TANGGAL</t>
+  </si>
+  <si>
+    <t>URAIAN</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>NILAI</t>
+  </si>
+  <si>
+    <t>DEBET</t>
+  </si>
+  <si>
+    <t>KREDIT</t>
+  </si>
+  <si>
+    <t>BUKU BESAR</t>
+  </si>
+  <si>
+    <t>JURNAL</t>
+  </si>
+  <si>
+    <t>Penerimaan Kas/Bank atas Retur Barang</t>
+  </si>
+  <si>
+    <t>Retur Barang</t>
+  </si>
+  <si>
+    <t>Pembayaran Invoice Pembelian</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +85,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -40,18 +146,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +608,790 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="12">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="I7" s="10">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>44946</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>44951</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="12">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:K10" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I10" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>44936</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="4"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>44941</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>800000</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="17">
+        <v>800000</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>-800000</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="12">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="I7" s="10">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Debit Note (3)" sheetId="3" r:id="rId1"/>
-    <sheet name="Debit Note (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Debit Note" sheetId="1" r:id="rId3"/>
+    <sheet name="ARF Belum dibayar yang Disettle" sheetId="5" r:id="rId1"/>
+    <sheet name="ARF dengan RPC" sheetId="4" r:id="rId2"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId4"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="25">
   <si>
     <t>Pembelian Barang</t>
   </si>
@@ -67,6 +69,30 @@
   </si>
   <si>
     <t>Pembayaran Invoice Pembelian</t>
+  </si>
+  <si>
+    <t>Pembayaran Advance</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Pertanggung Jawaban Advance</t>
+  </si>
+  <si>
+    <t>Biaya</t>
+  </si>
+  <si>
+    <t>Piutang Karyawan</t>
+  </si>
+  <si>
+    <t>Uang Muka Karyawan</t>
+  </si>
+  <si>
+    <t>Pengembalian Sisa Uang ke Perusahaan</t>
+  </si>
+  <si>
+    <t>Pembayaran Uang ke Karyawan</t>
   </si>
 </sst>
 </file>
@@ -75,7 +101,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -239,27 +265,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -271,31 +288,34 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,6 +324,36 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,6 +659,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
+        <v>44941</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:L5" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:L8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>-1500000</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="1"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>44943</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="1"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>-1500000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="1"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>2000000</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5" si="1">(IF(ISNUMBER(L4), L4, 0) + IF(EXACT(L$4, $D5), ((IF(EXACT(L$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(L$4, $F5), ((IF(EXACT(L$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:L11" si="2">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>-2000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>2000000</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
+        <v>2000000</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="28">
+        <v>500000</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>-500000</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>-500000</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
+        <v>44943</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="7">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>-500000</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="19"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="13">
+        <v>500000</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -629,281 +1238,287 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="I2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="26"/>
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+      <c r="B5" s="19">
         <v>44928</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="12">
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
         <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
         <v>1000000</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
         <v>1000000</v>
       </c>
-      <c r="J6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
+      <c r="B7" s="19">
         <v>44941</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="I7" s="10">
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="17">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
+      <c r="B9" s="19">
         <v>44946</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>200000</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="10">
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>-200000</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="16" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>200000</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="7">
         <f t="shared" si="0"/>
         <v>-200000</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
+      <c r="B11" s="19">
         <v>44951</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>200000</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="I11" s="10">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="7">
         <f t="shared" si="0"/>
         <v>-800000</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="7">
         <f t="shared" si="0"/>
         <v>-200000</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="16" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <v>200000</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <f t="shared" si="0"/>
         <v>-800000</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B5:B6"/>
@@ -912,19 +1527,13 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K10"/>
   <sheetViews>
@@ -946,253 +1555,253 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="I2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="26"/>
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+      <c r="B5" s="19">
         <v>44928</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="12">
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
         <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
         <v>1000000</v>
       </c>
-      <c r="J5" s="12">
-        <f t="shared" ref="J5:K10" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" ref="I6:I10" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
+      <c r="B7" s="19">
         <v>44936</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>200000</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="I7" s="10">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
         <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
         <v>1000000</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
         <v>800000</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>200000</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <f t="shared" si="4"/>
         <v>800000</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
+      <c r="B9" s="19">
         <v>44941</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>800000</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="10">
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="16" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>800000</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>800000</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <f t="shared" si="3"/>
         <v>-800000</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,171 +1818,171 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="I2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="26"/>
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+      <c r="B5" s="19">
         <v>44928</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="12">
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
         <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
         <v>1000000</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
         <v>1000000</v>
       </c>
-      <c r="J6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
+      <c r="B7" s="19">
         <v>44941</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="I7" s="10">
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="17">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="8">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <f t="shared" si="0"/>
         <v>-1000000</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5850" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ARF Belum dibayar yang Disettle" sheetId="5" r:id="rId1"/>
-    <sheet name="ARF dengan RPC" sheetId="4" r:id="rId2"/>
-    <sheet name="Debit Note (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="Debit Note (2)" sheetId="2" r:id="rId4"/>
-    <sheet name="Debit Note" sheetId="1" r:id="rId5"/>
+    <sheet name="Scratch" sheetId="7" r:id="rId1"/>
+    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId2"/>
+    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId3"/>
+    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId4"/>
+    <sheet name="ARF Normal" sheetId="4" r:id="rId5"/>
+    <sheet name="Template" sheetId="6" r:id="rId6"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId7"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId8"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="43">
   <si>
     <t>Pembelian Barang</t>
   </si>
@@ -94,6 +98,60 @@
   <si>
     <t>Pembayaran Uang ke Karyawan</t>
   </si>
+  <si>
+    <t>Skenario :</t>
+  </si>
+  <si>
+    <t>Advance Disubmit ---&gt; Advance Final Approve ---&gt; Pencairan Dana --&gt; Advance Settlement ---&gt; Advance Return (Bila Ada)</t>
+  </si>
+  <si>
+    <t>Advance Disubmit ---&gt; Advance Final Approve --&gt; Advance Settlement ---&gt; Pembayaran Advance</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>Transaksi …</t>
+  </si>
+  <si>
+    <t>Saldo Akhir</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Penerbitan Invoice</t>
+  </si>
+  <si>
+    <t>Piutang Usaha</t>
+  </si>
+  <si>
+    <t>Pembayaran Piutang dari Customer</t>
+  </si>
+  <si>
+    <t>Sales Invoice diterbitkan ---&gt; Customer membayar Piutang</t>
+  </si>
+  <si>
+    <t>VAT Out</t>
+  </si>
+  <si>
+    <t>Pembatalan Invoice 2023</t>
+  </si>
+  <si>
+    <t>Resubmit Invoice di 2024</t>
+  </si>
+  <si>
+    <t>Prepaid Tax 23</t>
+  </si>
+  <si>
+    <t>Pemotongan PPH</t>
+  </si>
+  <si>
+    <t>Penerbitan Invoice di 2023</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +189,15 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +228,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1"/>
+        </stop>
+        <stop position="0.5">
+          <color rgb="FFFF0000"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -261,11 +351,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -307,11 +649,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,29 +688,178 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,6 +867,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFDDDD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -659,232 +1170,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L8"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="I3" s="6" t="s">
+      <c r="G6" s="74"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M6" s="58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="5" t="s">
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="31" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="19">
-        <v>44941</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1500000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:L5" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="0"/>
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1500000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:L8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>-1500000</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="1"/>
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="19">
-        <v>44943</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1500000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="1"/>
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1500000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>-1500000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="1"/>
-        <v>-1500000</v>
-      </c>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="65">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="65">
+        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="69">
+        <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K9" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="M9" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M10" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M12" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M13" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -893,323 +1585,760 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L11"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="I3" s="6" t="s">
+      <c r="G6" s="74"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M6" s="57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="5" t="s">
+      <c r="N6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="19">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>2000000</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" ref="L5" si="1">(IF(ISNUMBER(L4), L4, 0) + IF(EXACT(L$4, $D5), ((IF(EXACT(L$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(L$4, $F5), ((IF(EXACT(L$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
+      <c r="L7" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="52"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="80">
+        <v>44946</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="77">
+        <v>1100000</v>
+      </c>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="65">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44946</v>
+      </c>
+      <c r="J8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>1100000</v>
+      </c>
+      <c r="K8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="47"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="65">
+        <f t="shared" ref="I9:I18" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44946</v>
+      </c>
+      <c r="J9" s="69">
+        <f t="shared" ref="J9:J18" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1100000</v>
+      </c>
+      <c r="K9" s="69">
+        <f t="shared" ref="K9:K18" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" ref="L9:N18" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="M9" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="47"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="13">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="65">
+        <f t="shared" si="0"/>
+        <v>44946</v>
+      </c>
+      <c r="J10" s="69">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="K10" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="69">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M10" s="69">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="N10" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="47"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="82">
+        <v>45293</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="65">
+        <f t="shared" si="0"/>
+        <v>45293</v>
+      </c>
+      <c r="J11" s="69">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="K11" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="69">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="N11" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="47"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="20">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="65">
+        <f t="shared" si="0"/>
+        <v>45293</v>
+      </c>
+      <c r="J12" s="69">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="K12" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="47"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1100000</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="65">
+        <f t="shared" si="0"/>
+        <v>45293</v>
+      </c>
+      <c r="J13" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="47"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="80">
+        <v>45311</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="77">
+        <v>550000</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="65">
+        <f t="shared" si="0"/>
+        <v>45311</v>
+      </c>
+      <c r="J14" s="69">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="K14" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="47"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="20">
+        <v>500000</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="65">
+        <f t="shared" si="0"/>
+        <v>45311</v>
+      </c>
+      <c r="J15" s="69">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="K15" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="69">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="M15" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="47"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="13">
+        <v>50000</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="65">
+        <f t="shared" si="0"/>
+        <v>45311</v>
+      </c>
+      <c r="J16" s="69">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="K16" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="69">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="M16" s="69">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="N16" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="47"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="24">
+        <v>45316</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:L11" si="2">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>-2000000</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="E17" s="11">
+        <v>540000</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="65">
+        <f t="shared" si="0"/>
+        <v>45316</v>
+      </c>
+      <c r="J17" s="69">
+        <f t="shared" si="1"/>
+        <v>550000</v>
+      </c>
+      <c r="K17" s="69">
         <f t="shared" si="2"/>
-        <v>2000000</v>
-      </c>
-      <c r="K6" s="7">
+        <v>540000</v>
+      </c>
+      <c r="L17" s="69">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="M17" s="69">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="N17" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="47"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="13">
+        <v>540000</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="65">
+        <f t="shared" si="0"/>
+        <v>45316</v>
+      </c>
+      <c r="J18" s="69">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="K18" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="19">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1500000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="2"/>
-        <v>-2000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="2"/>
-        <v>2000000</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="28">
+        <v>540000</v>
+      </c>
+      <c r="L18" s="69">
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>-2000000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="2"/>
-        <v>2000000</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="2"/>
-        <v>-500000</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>-2000000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="2"/>
-        <v>-500000</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="19">
-        <v>44943</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="M18" s="69">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="N18" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="47"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="24">
+        <v>45316</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="11">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="65">
+        <f t="shared" ref="I19:I20" si="4">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), IF(EXACT($B19, ""), I18, $B19), "")</f>
+        <v>45316</v>
+      </c>
+      <c r="J19" s="69">
+        <f t="shared" ref="J19:J20" si="5">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(J18), J18, 0) + IF(EXACT(J$7, $D19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(J$7, $F19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
+        <v>10000</v>
+      </c>
+      <c r="K19" s="69">
+        <f t="shared" ref="K19:K20" si="6">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(K18), K18, 0) + IF(EXACT(K$7, $D19), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(K$7, $F19), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
+        <v>540000</v>
+      </c>
+      <c r="L19" s="69">
+        <f t="shared" ref="L19:N20" si="7">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(L18), L18, 0) + IF(EXACT(L$7, $D19), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(L$7, $F19), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
         <v>500000</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="7">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="2"/>
-        <v>-500000</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="M19" s="69">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+      <c r="N19" s="69">
+        <f t="shared" si="7"/>
+        <v>-10000</v>
+      </c>
+      <c r="O19" s="47"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="13">
+        <v>10000</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="65">
+        <f t="shared" si="4"/>
+        <v>45316</v>
+      </c>
+      <c r="J20" s="69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="69">
+        <f t="shared" si="6"/>
+        <v>540000</v>
+      </c>
+      <c r="L20" s="69">
+        <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="I11" s="8">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
+      <c r="M20" s="69">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+      <c r="N20" s="69">
+        <f t="shared" si="7"/>
+        <v>-10000</v>
+      </c>
+      <c r="O20" s="47"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:L2"/>
+  <mergeCells count="18">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -1217,6 +2346,1759 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="80">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="77">
+        <v>1100000</v>
+      </c>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="65">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>1100000</v>
+      </c>
+      <c r="K8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="65">
+        <f t="shared" ref="I9:I14" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="69">
+        <f t="shared" ref="J9:J14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1100000</v>
+      </c>
+      <c r="K9" s="69">
+        <f t="shared" ref="K9:K14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" ref="L9:L14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="M9" s="69">
+        <f t="shared" ref="M9:M14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="13">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="65">
+        <f t="shared" si="0"/>
+        <v>44928</v>
+      </c>
+      <c r="J10" s="69">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="K10" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="69">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M10" s="69">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="24">
+        <v>44940</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1100000</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="65">
+        <f t="shared" si="0"/>
+        <v>44940</v>
+      </c>
+      <c r="J11" s="69">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="K11" s="69">
+        <f t="shared" si="2"/>
+        <v>1100000</v>
+      </c>
+      <c r="L11" s="69">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M11" s="69">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1100000</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="65">
+        <f t="shared" si="0"/>
+        <v>44940</v>
+      </c>
+      <c r="J12" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="69">
+        <f t="shared" si="2"/>
+        <v>1100000</v>
+      </c>
+      <c r="L12" s="69">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M12" s="69">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K14" s="69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33">
+        <v>44941</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1500000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="65">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44941</v>
+      </c>
+      <c r="J8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="69">
+        <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="69">
+        <f t="shared" si="0"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="65">
+        <f t="shared" ref="I9:I11" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44941</v>
+      </c>
+      <c r="J9" s="69">
+        <f t="shared" ref="J9:J11" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="69">
+        <f t="shared" ref="K9:K11" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-1500000</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" ref="L9:L11" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="69">
+        <f t="shared" ref="M9:M11" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-1500000</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="24">
+        <v>44943</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="65">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J10" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="69">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="65">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J11" s="69">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="K11" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="69">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="65">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="69">
+        <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="L8" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="65">
+        <f t="shared" ref="I9:I14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="69">
+        <f t="shared" ref="J9:J14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-2000000</v>
+      </c>
+      <c r="K9" s="69">
+        <f t="shared" ref="K9:K14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" ref="L9:L14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="69">
+        <f t="shared" ref="M9:M14" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="24">
+        <v>44941</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="65">
+        <f t="shared" si="1"/>
+        <v>44941</v>
+      </c>
+      <c r="J10" s="69">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="K10" s="69">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="L10" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="69">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20">
+        <v>500000</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="65">
+        <f t="shared" si="1"/>
+        <v>44941</v>
+      </c>
+      <c r="J11" s="69">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="K11" s="69">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="L11" s="69">
+        <f t="shared" si="4"/>
+        <v>-500000</v>
+      </c>
+      <c r="M11" s="69">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="65">
+        <f t="shared" si="1"/>
+        <v>44941</v>
+      </c>
+      <c r="J12" s="69">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="K12" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="69">
+        <f t="shared" si="4"/>
+        <v>-500000</v>
+      </c>
+      <c r="M12" s="69">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="53">
+        <v>44943</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="65">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J13" s="69">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="K13" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="69">
+        <f t="shared" si="4"/>
+        <v>-500000</v>
+      </c>
+      <c r="M13" s="69">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13">
+        <v>500000</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="65">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J14" s="69">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="K14" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="69">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47">
+        <f ca="1">COUNTIF(OFFSET(I6, 2, 0, 20, 1), "&gt;1")</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="47">
+        <f>COUNTIF(J8:J13, "&gt;1")</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="50">
+        <f ca="1">COUNTA(OFFSET(I6, 0, 1, 1, 20))</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="65">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="69">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="65">
+        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="69">
+        <f t="shared" ref="J9:J13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K9" s="69">
+        <f t="shared" ref="K9:K13" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" ref="L9:L13" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="M9" s="69">
+        <f t="shared" ref="M9:M13" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" s="69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M10" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" s="69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M11" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L12" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <f>SUMIF(J6:M6, "=ACTIVA", J9:M9)</f>
+        <v>2000000</v>
+      </c>
+      <c r="J16" s="2">
+        <f ca="1">SUM(OFFSET(I6,2,1,1,6))</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <f>SUMIF(J7:M7, "=PASIVA", J10:M10)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
@@ -1239,35 +4121,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="31"/>
       <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1279,8 +4161,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1304,10 +4186,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="19">
+      <c r="B5" s="24">
         <v>44928</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1332,8 +4214,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
@@ -1356,10 +4238,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="19">
+      <c r="B7" s="24">
         <v>44941</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1384,8 +4266,8 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="12" t="s">
@@ -1408,10 +4290,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="19">
+      <c r="B9" s="24">
         <v>44946</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1436,8 +4318,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -1460,10 +4342,10 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="19">
+      <c r="B11" s="24">
         <v>44951</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1488,8 +4370,8 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -1513,12 +4395,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B5:B6"/>
@@ -1527,18 +4403,24 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1556,35 +4438,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="31"/>
       <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1596,8 +4478,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1621,10 +4503,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="19">
+      <c r="B5" s="24">
         <v>44928</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1649,8 +4531,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
@@ -1673,10 +4555,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="19">
+      <c r="B7" s="24">
         <v>44936</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1701,8 +4583,8 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="12" t="s">
@@ -1725,10 +4607,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="19">
+      <c r="B9" s="24">
         <v>44941</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1753,8 +4635,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -1778,25 +4660,25 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K8"/>
   <sheetViews>
@@ -1819,35 +4701,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="31"/>
       <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1859,8 +4741,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1884,10 +4766,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="19">
+      <c r="B5" s="24">
         <v>44928</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1912,8 +4794,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
@@ -1936,10 +4818,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="19">
+      <c r="B7" s="24">
         <v>44941</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1964,8 +4846,8 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="12" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -4,25 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5850" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5850" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="7" r:id="rId1"/>
-    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId2"/>
-    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId3"/>
-    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId4"/>
-    <sheet name="ARF Normal" sheetId="4" r:id="rId5"/>
-    <sheet name="Template" sheetId="6" r:id="rId6"/>
-    <sheet name="Debit Note (3)" sheetId="3" r:id="rId7"/>
-    <sheet name="Debit Note (2)" sheetId="2" r:id="rId8"/>
-    <sheet name="Debit Note" sheetId="1" r:id="rId9"/>
+    <sheet name="Scratch (2)" sheetId="11" r:id="rId2"/>
+    <sheet name="Sales Invoice Disertai Retur" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId4"/>
+    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId5"/>
+    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId6"/>
+    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId7"/>
+    <sheet name="ARF Normal" sheetId="4" r:id="rId8"/>
+    <sheet name="Template" sheetId="6" r:id="rId9"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId10"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId11"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="45">
   <si>
     <t>Pembelian Barang</t>
   </si>
@@ -147,10 +150,16 @@
     <t>Prepaid Tax 23</t>
   </si>
   <si>
-    <t>Pemotongan PPH</t>
+    <t>Penerbitan Invoice di 2023</t>
   </si>
   <si>
-    <t>Penerbitan Invoice di 2023</t>
+    <t>Pemotongan PPH 23</t>
+  </si>
+  <si>
+    <t>Penerbitan Credit Note dari Customer</t>
+  </si>
+  <si>
+    <t>Hutang Customer</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -664,42 +673,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,24 +687,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -743,122 +698,179 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,161 +1210,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44928</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1363,33 +1375,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -1398,168 +1410,1372 @@
       <c r="G9" s="13">
         <v>2000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K9" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="69">
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="42">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="M9" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="47"/>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65" t="str">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="69" t="str">
+      <c r="J10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K10" s="69" t="str">
+      <c r="K10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M10" s="69" t="str">
+      <c r="M10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65" t="str">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="69" t="str">
+      <c r="J11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K11" s="69" t="str">
+      <c r="K11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M11" s="69" t="str">
+      <c r="M11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65" t="str">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="69" t="str">
+      <c r="J12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K12" s="69" t="str">
+      <c r="K12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M12" s="69" t="str">
+      <c r="M12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65" t="str">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="69" t="str">
+      <c r="J13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K13" s="69" t="str">
+      <c r="K13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M13" s="69" t="str">
+      <c r="M13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="55">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="55"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="55">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="55"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="55">
+        <v>44946</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="55"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="55">
+        <v>44951</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="55"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="55">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="55"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="55">
+        <v>44936</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="55"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="55">
+        <v>44941</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>800000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="55"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>800000</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="3"/>
+        <v>-800000</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="55">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="55"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="55">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="55"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M10" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1583,15 +2799,819 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="79">
+        <v>44946</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="45">
+        <v>1100000</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44946</v>
+      </c>
+      <c r="J8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>1100000</v>
+      </c>
+      <c r="K8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(O7), O7, 0) + IF(EXACT(O$7, $D8), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(O$7, $F8), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I19" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44946</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:J19" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1100000</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" ref="K9:K19" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ref="L9:L19" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ref="M9:M19" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ref="N9:N19" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" ref="O9:O19" si="6">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(O8), O8, 0) + IF(EXACT(O$7, $D9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(O$7, $F9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="13">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>44946</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="55">
+        <v>44948</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1080000</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f>IF(OR(NOT(EXACT($E11, "")), NOT(EXACT($G11, ""))), IF(EXACT($B11, ""), I17, $B11), "")</f>
+        <v>44948</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1080000</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>44948</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="55">
+        <v>44951</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
+        <f>IF(OR(NOT(EXACT($E13, "")), NOT(EXACT($G13, ""))), IF(EXACT($B13, ""), I7, $B13), "")</f>
+        <v>44951</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="K13" s="8">
+        <f>IF(OR(NOT(EXACT($E13, "")), NOT(EXACT($G13, ""))), (IF(ISNUMBER(K12), K12, 0) + IF(EXACT(K$7, $D13), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E13), IF(EXACT(K$7, $F13), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G13), 0))), "")</f>
+        <v>1080000</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
+        <f t="shared" si="0"/>
+        <v>44951</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="80">
+        <v>44952</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="20">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="38">
+        <f>IF(OR(NOT(EXACT($E15, "")), NOT(EXACT($G15, ""))), IF(EXACT($B15, ""),#REF!, $B15), "")</f>
+        <v>44952</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="38">
+        <f>IF(OR(NOT(EXACT($E16, "")), NOT(EXACT($G16, ""))), IF(EXACT($B16, ""), I15, $B16), "")</f>
+        <v>44952</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="20">
+        <v>110000</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="38">
+        <f>IF(OR(NOT(EXACT($E17, "")), NOT(EXACT($G17, ""))), IF(EXACT($B17, ""), I16, $B17), "")</f>
+        <v>44952</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="5"/>
+        <v>110000</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="55">
+        <v>44953</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="38">
+        <f>IF(OR(NOT(EXACT($E18, "")), NOT(EXACT($G18, ""))), IF(EXACT($B18, ""), I12, $B18), "")</f>
+        <v>44953</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="5"/>
+        <v>108000</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="38">
+        <f t="shared" si="0"/>
+        <v>44953</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="5"/>
+        <v>108000</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="6"/>
+        <v>-18000</v>
+      </c>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I11:I18" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1611,188 +3631,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="80">
+      <c r="A8" s="29"/>
+      <c r="B8" s="79">
         <v>44946</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="76" t="s">
+      <c r="C8" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="45">
         <v>1100000</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44946</v>
       </c>
@@ -1816,11 +3836,11 @@
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="O8" s="47"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="83"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -1830,36 +3850,36 @@
       <c r="G9" s="20">
         <v>1000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I18" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44946</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J18" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1100000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K18" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:N18" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1000000</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="84"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -1869,39 +3889,39 @@
       <c r="G10" s="13">
         <v>100000</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="0"/>
         <v>44946</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="47"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="82">
+      <c r="A11" s="29"/>
+      <c r="B11" s="80">
         <v>45293</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1910,38 +3930,38 @@
       <c r="E11" s="11">
         <v>1000000</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>45293</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="47"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="83"/>
       <c r="D12" s="19" t="s">
         <v>37</v>
@@ -1949,120 +3969,120 @@
       <c r="E12" s="20">
         <v>100000</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65">
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
         <f t="shared" si="0"/>
         <v>45293</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12" s="47"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="84"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="13">
         <v>1100000</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
         <f t="shared" si="0"/>
         <v>45293</v>
       </c>
-      <c r="J13" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="69">
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="80">
+      <c r="A14" s="29"/>
+      <c r="B14" s="79">
         <v>45311</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="45">
         <v>550000</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="65">
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
         <f t="shared" si="0"/>
         <v>45311</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="83"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
@@ -2072,36 +4092,36 @@
       <c r="G15" s="20">
         <v>500000</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="65">
+      <c r="H15" s="29"/>
+      <c r="I15" s="38">
         <f t="shared" si="0"/>
         <v>45311</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="47"/>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="84"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
@@ -2111,39 +4131,39 @@
       <c r="G16" s="13">
         <v>50000</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="65">
+      <c r="H16" s="29"/>
+      <c r="I16" s="38">
         <f t="shared" si="0"/>
         <v>45311</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="42">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="24">
+      <c r="A17" s="29"/>
+      <c r="B17" s="55">
         <v>45316</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -2154,37 +4174,37 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="65">
+      <c r="H17" s="29"/>
+      <c r="I17" s="38">
         <f t="shared" si="0"/>
         <v>45316</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="42">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="42">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="47"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="12" t="s">
@@ -2193,40 +4213,40 @@
       <c r="G18" s="13">
         <v>540000</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="65">
+      <c r="H18" s="29"/>
+      <c r="I18" s="38">
         <f t="shared" si="0"/>
         <v>45316</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="42">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="42">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="42">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" s="47"/>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="24">
+      <c r="A19" s="29"/>
+      <c r="B19" s="55">
         <v>45316</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>41</v>
+      <c r="C19" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>40</v>
@@ -2236,37 +4256,37 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="65">
+      <c r="H19" s="29"/>
+      <c r="I19" s="38">
         <f t="shared" ref="I19:I20" si="4">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), IF(EXACT($B19, ""), I18, $B19), "")</f>
         <v>45316</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="42">
         <f t="shared" ref="J19:J20" si="5">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(J18), J18, 0) + IF(EXACT(J$7, $D19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(J$7, $F19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
         <v>10000</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="42">
         <f t="shared" ref="K19:K20" si="6">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(K18), K18, 0) + IF(EXACT(K$7, $D19), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(K$7, $F19), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
         <v>540000</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="42">
         <f t="shared" ref="L19:N20" si="7">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(L18), L18, 0) + IF(EXACT(L$7, $D19), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(L$7, $F19), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
         <v>500000</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="42">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="42">
         <f t="shared" si="7"/>
         <v>-10000</v>
       </c>
-      <c r="O19" s="47"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="12" t="s">
@@ -2275,52 +4295,60 @@
       <c r="G20" s="13">
         <v>10000</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="65">
+      <c r="H20" s="29"/>
+      <c r="I20" s="38">
         <f t="shared" si="4"/>
         <v>45316</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="42">
         <f t="shared" si="6"/>
         <v>540000</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="42">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="42">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="42">
         <f t="shared" si="7"/>
         <v>-10000</v>
       </c>
-      <c r="O20" s="47"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B17:B18"/>
@@ -2331,29 +4359,21 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2368,206 +4388,221 @@
     <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-    </row>
-    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-    </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="N6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="52"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="80">
+      <c r="N7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="79">
         <v>44928</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="45">
         <v>1100000</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>1100000</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="82"/>
+      <c r="N8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="83"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -2577,32 +4612,36 @@
       <c r="G9" s="20">
         <v>1000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I14" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1100000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1000000</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="85"/>
+      <c r="N9" s="42">
+        <f t="shared" ref="N9:N14" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="84"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2612,204 +4651,237 @@
       <c r="G10" s="13">
         <v>100000</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="0"/>
         <v>44928</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="N10" s="47"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="24">
+      <c r="N10" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="55">
         <v>44940</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="11">
-        <v>1100000</v>
+        <v>1080000</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>44940</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="2"/>
-        <v>1100000</v>
-      </c>
-      <c r="L11" s="69">
+        <v>1080000</v>
+      </c>
+      <c r="L11" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="N11" s="47"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="N11" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="13">
-        <v>1100000</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65">
+        <v>1080000</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
         <f t="shared" si="0"/>
         <v>44940</v>
       </c>
-      <c r="J12" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="69">
+      <c r="J12" s="42">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="K12" s="42">
         <f t="shared" si="2"/>
-        <v>1100000</v>
-      </c>
-      <c r="L12" s="69">
+        <v>1080000</v>
+      </c>
+      <c r="L12" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="42">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="N12" s="47"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="N12" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="55">
+        <v>44951</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="11">
+        <v>20000</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65" t="str">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K13" s="69" t="str">
+        <v>44951</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="K13" s="42">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L13" s="69" t="str">
+        <v>1080000</v>
+      </c>
+      <c r="L13" s="42">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M13" s="69" t="str">
+        <v>1000000</v>
+      </c>
+      <c r="M13" s="42">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N13" s="47"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+        <v>100000</v>
+      </c>
+      <c r="N13" s="42">
+        <f t="shared" si="5"/>
+        <v>-20000</v>
+      </c>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="65" t="str">
+      <c r="F14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K14" s="69" t="str">
+        <v>44951</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="42">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L14" s="69" t="str">
+        <v>1080000</v>
+      </c>
+      <c r="L14" s="42">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M14" s="69" t="str">
+        <v>1000000</v>
+      </c>
+      <c r="M14" s="42">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N14" s="47"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+        <v>100000</v>
+      </c>
+      <c r="N14" s="42">
+        <f t="shared" si="5"/>
+        <v>-20000</v>
+      </c>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2838,165 +4910,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44941</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3007,33 +5079,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44941</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f t="shared" si="0"/>
         <v>-1500000</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3042,35 +5114,35 @@
       <c r="G9" s="13">
         <v>1500000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I11" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44941</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J11" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K11" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>-1500000</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L11" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M11" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>-1500000</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24">
+      <c r="A10" s="29"/>
+      <c r="B10" s="55">
         <v>44943</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -3081,33 +5153,33 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
@@ -3116,47 +5188,52 @@
       <c r="G11" s="13">
         <v>1500000</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="2"/>
         <v>-1500000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -3164,18 +5241,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3205,165 +5277,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44928</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3374,33 +5446,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3409,35 +5481,35 @@
       <c r="G9" s="13">
         <v>2000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>-2000000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M14" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24">
+      <c r="A10" s="29"/>
+      <c r="B10" s="55">
         <v>44941</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3448,33 +5520,33 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="2"/>
         <v>-2000000</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
@@ -3483,33 +5555,33 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="2"/>
         <v>-2000000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="42">
         <f t="shared" si="4"/>
         <v>-500000</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -3518,35 +5590,35 @@
       <c r="G12" s="13">
         <v>2000000</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="42">
         <f t="shared" si="2"/>
         <v>-2000000</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="42">
         <f t="shared" si="4"/>
         <v>-500000</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53">
+      <c r="A13" s="29"/>
+      <c r="B13" s="58">
         <v>44943</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="59" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -3557,33 +5629,33 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="42">
         <f t="shared" si="2"/>
         <v>-1500000</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="42">
         <f t="shared" si="4"/>
         <v>-500000</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -3592,47 +5664,53 @@
       <c r="G14" s="13">
         <v>500000</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="65">
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="42">
         <f t="shared" si="2"/>
         <v>-1500000</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -3641,19 +5719,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
@@ -3683,170 +5755,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29">
         <f ca="1">COUNTIF(OFFSET(I6, 2, 0, 20, 1), "&gt;1")</f>
         <v>3</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="29">
         <f>COUNTIF(J8:J13, "&gt;1")</f>
         <v>2</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="32">
         <f ca="1">COUNTA(OFFSET(I6, 0, 1, 1, 20))</f>
         <v>4</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44928</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3857,33 +5929,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3892,168 +5964,168 @@
       <c r="G9" s="13">
         <v>2000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K13" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L13" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M13" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65" t="str">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="69" t="str">
+      <c r="J10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K10" s="69" t="str">
+      <c r="K10" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M10" s="69" t="str">
+      <c r="M10" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65" t="str">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="69" t="str">
+      <c r="J11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K11" s="69" t="str">
+      <c r="K11" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M11" s="69" t="str">
+      <c r="M11" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65" t="str">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="69" t="str">
+      <c r="J12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K12" s="69" t="str">
+      <c r="K12" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="69" t="str">
+      <c r="M12" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65" t="str">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="69" t="str">
+      <c r="J13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K13" s="69" t="str">
+      <c r="K13" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="69" t="str">
+      <c r="M13" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I15" s="1" t="s">
@@ -4078,12 +6150,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -4092,795 +6158,12 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="24">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="24">
-        <v>44946</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="24">
-        <v>44951</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="24">
-        <v>44936</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="24">
-        <v>44941</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>800000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="13">
-        <v>800000</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>-800000</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="24">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5850" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5850" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="7" r:id="rId1"/>
-    <sheet name="Scratch (2)" sheetId="11" r:id="rId2"/>
-    <sheet name="Sales Invoice Disertai Retur" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId4"/>
-    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId5"/>
-    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId6"/>
-    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId7"/>
-    <sheet name="ARF Normal" sheetId="4" r:id="rId8"/>
-    <sheet name="Template" sheetId="6" r:id="rId9"/>
-    <sheet name="Debit Note (3)" sheetId="3" r:id="rId10"/>
-    <sheet name="Debit Note (2)" sheetId="2" r:id="rId11"/>
-    <sheet name="Debit Note" sheetId="1" r:id="rId12"/>
+    <sheet name="Loan ke QDC" sheetId="16" r:id="rId2"/>
+    <sheet name="Loan Dari QDC (Bayar Telat)" sheetId="14" r:id="rId3"/>
+    <sheet name="Loan dari QDC (Bayar Tepat)" sheetId="11" r:id="rId4"/>
+    <sheet name="Sales Invoice Disertai Retur" sheetId="12" r:id="rId5"/>
+    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId6"/>
+    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId7"/>
+    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId8"/>
+    <sheet name="ARF Normal" sheetId="4" r:id="rId9"/>
+    <sheet name="Template" sheetId="6" r:id="rId10"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId11"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId12"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="61">
   <si>
     <t>Pembelian Barang</t>
   </si>
@@ -161,6 +162,54 @@
   <si>
     <t>Hutang Customer</t>
   </si>
+  <si>
+    <t>QDC meminjamkan uang ke IMD</t>
+  </si>
+  <si>
+    <t>Piutang IMD</t>
+  </si>
+  <si>
+    <t>IMD mengembalikan pinjaman ke QDC</t>
+  </si>
+  <si>
+    <t>Revenue Lain2</t>
+  </si>
+  <si>
+    <t>IMD mengembalikan pinjaman ke QDC + Denda atau Bunga sebesar 100.000</t>
+  </si>
+  <si>
+    <t>QDC sebagai Kreditur yang memberikan Pinjaman Uang kepada pihak lain. Pihak Debitur terlambat membayar sehinngga dikenakan denda dan/atau penalti</t>
+  </si>
+  <si>
+    <t>QDC sebagai Kreditur yang memberikan Pinjaman Uang kepada pihak lain. Pihak Debitur membayar tepat waktu</t>
+  </si>
+  <si>
+    <t>Hutang Bank</t>
+  </si>
+  <si>
+    <t>Bank memberikan pinjaman ke QDC</t>
+  </si>
+  <si>
+    <t>QDC Mengembalikan Hutang Bertahap (Tahap 1)</t>
+  </si>
+  <si>
+    <t>QDC Mengembalikan Hutang Bertahap (Tahap 2) + Denda 1% dan Bunga 5%</t>
+  </si>
+  <si>
+    <t>Biaya Administrasi</t>
+  </si>
+  <si>
+    <t>Biaya Bunga</t>
+  </si>
+  <si>
+    <t>QDC sebagai Debitur yang mendapatkan pinjaman dari Bank. Pihak Debitur membayar tepat waktu ditahap pertama, namun telat bayar di tahap selanjutnya sehinga dikenakan denda</t>
+  </si>
+  <si>
+    <t>Sales Invoice diterbitkan ---&gt; Invoice direvisi pada tahun 2024---&gt;Customer membayar Piutang</t>
+  </si>
+  <si>
+    <t>Sales Invoice diterbitkan ---&gt; Customer membayar Piutang secara penuh ---&gt; Customer menerbitkan Credit Note ---&gt; Penjual mengembalikan uang kepada Csutomer</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -612,11 +661,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -753,6 +875,66 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,63 +953,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,29 +974,50 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,11 +1376,11 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -1246,11 +1392,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -1277,42 +1423,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -1331,8 +1477,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
@@ -1361,10 +1507,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="74">
         <v>44928</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="76" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1400,8 +1546,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -1435,8 +1581,8 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -1466,8 +1612,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -1497,8 +1643,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
@@ -1528,8 +1674,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -1575,6 +1721,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -1583,12 +1735,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -1597,802 +1743,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="55">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="55">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="55">
-        <v>44946</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="55"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="55">
-        <v>44951</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="55"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="55">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="55">
-        <v>44936</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="55">
-        <v>44941</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>800000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="55"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="13">
-        <v>800000</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>-800000</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="55">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="55">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2434,11 +1791,11 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -2450,15 +1807,24 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="29">
+        <f ca="1">COUNTIF(OFFSET(I6, 2, 0, 20, 1), "&gt;1")</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="29">
+        <f>COUNTIF(J8:J13, "&gt;1")</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="32">
+        <f ca="1">COUNTA(OFFSET(I6, 0, 1, 1, 20))</f>
+        <v>4</v>
+      </c>
       <c r="L3" s="32"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
@@ -2481,42 +1847,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -2535,8 +1901,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
@@ -2565,10 +1931,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="74">
         <v>44928</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="76" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -2604,8 +1970,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -2620,27 +1986,27 @@
         <v>44928</v>
       </c>
       <c r="J9" s="42">
-        <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="J9:J13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
       <c r="K9" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K9:K13" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="L9" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L9:L13" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
       <c r="M9" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M9:M13" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -2655,23 +2021,23 @@
         <v/>
       </c>
       <c r="K10" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L10" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M10" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -2686,23 +2052,23 @@
         <v/>
       </c>
       <c r="K11" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L11" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M11" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
@@ -2717,23 +2083,23 @@
         <v/>
       </c>
       <c r="K12" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M12" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -2748,15 +2114,15 @@
         <v/>
       </c>
       <c r="K13" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L13" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M13" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" s="29"/>
@@ -2776,6 +2142,27 @@
       <c r="L14" s="32"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <f>SUMIF(J6:M6, "=ACTIVA", J9:M9)</f>
+        <v>2000000</v>
+      </c>
+      <c r="J16" s="2">
+        <f ca="1">SUM(OFFSET(I6,2,1,1,6))</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <f>SUMIF(J7:M7, "=PASIVA", J10:M10)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2799,15 +2186,2247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="75">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="75">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="75"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="75">
+        <v>44946</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="75"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="75">
+        <v>44951</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="75"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="75">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="75">
+        <v>44936</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="75"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="75">
+        <v>44941</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>800000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="75"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>800000</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="3"/>
+        <v>-800000</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="75">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="75"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="75">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="75"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="74">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="K8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I15" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:J15" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" ref="K9:K15" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" ref="L9:L15" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" ref="M9:M15" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="42">
+        <f t="shared" ref="N9:N15" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="75">
+        <v>44959</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>44959</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="13">
+        <v>500000</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>44959</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="75">
+        <v>45000</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="20">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="42">
+        <f t="shared" si="5"/>
+        <v>-5000</v>
+      </c>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="20">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="K14" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="4"/>
+        <v>-25000</v>
+      </c>
+      <c r="N14" s="42">
+        <f t="shared" si="5"/>
+        <v>-5000</v>
+      </c>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="13">
+        <v>530000</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="38">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="J15" s="95">
+        <f t="shared" si="1"/>
+        <v>-30000</v>
+      </c>
+      <c r="K15" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="95">
+        <f t="shared" si="4"/>
+        <v>-25000</v>
+      </c>
+      <c r="N15" s="95">
+        <f t="shared" si="5"/>
+        <v>-5000</v>
+      </c>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="74">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="K8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:J13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" ref="K9:K13" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-1000000</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" ref="L9:L13" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" ref="M9:M13" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="75">
+        <v>44972</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1100000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>44972</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>44972</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="13">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>44972</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38" t="str">
+        <f t="shared" ref="I9:I14" si="5">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), IF(EXACT($B14, ""), I13, $B14), "")</f>
+        <v/>
+      </c>
+      <c r="J14" s="42" t="str">
+        <f t="shared" ref="J9:M14" si="6">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), (IF(ISNUMBER(J13), J13, 0) + IF(EXACT(J$7, $D14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E14), IF(EXACT(J$7, $F14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G14), 0))), "")</f>
+        <v/>
+      </c>
+      <c r="K14" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L14" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M14" s="42" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="74">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="K8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="75">
+        <v>44959</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>44959</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>44959</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M12" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M13" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2847,18 +4466,18 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -2872,11 +4491,11 @@
     <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -2907,44 +4526,44 @@
     </row>
     <row r="5" spans="1:16" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -2969,8 +4588,8 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -2984,7 +4603,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
@@ -3007,10 +4626,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="79">
+      <c r="B8" s="80">
         <v>44946</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -3027,35 +4646,35 @@
         <v>44946</v>
       </c>
       <c r="J8" s="8">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <f t="shared" ref="J8:O8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>1100000</v>
       </c>
       <c r="K8" s="8">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="8">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="8">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="8">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(O7), O7, 0) + IF(EXACT(O$7, $D8), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(O$7, $F8), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -3066,39 +4685,39 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="38">
-        <f t="shared" ref="I9:I19" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <f t="shared" ref="I9:I19" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44946</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ref="J9:J19" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="J9:J19" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1100000</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ref="K9:K19" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="K9:K19" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" ref="L9:L19" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="L9:L19" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1000000</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" ref="M9:M19" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="M9:M19" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" ref="N9:N19" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="N9:N19" si="6">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" ref="O9:O19" si="6">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(O8), O8, 0) + IF(EXACT(O$7, $D9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(O$7, $F9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="O9:O19" si="7">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(O8), O8, 0) + IF(EXACT(O$7, $D9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(O$7, $F9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -3109,41 +4728,41 @@
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44946</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="55">
+      <c r="B11" s="75">
         <v>44948</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="77" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -3160,35 +4779,35 @@
         <v>44948</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -3199,41 +4818,41 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44948</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="55">
+      <c r="B13" s="75">
         <v>44951</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="79" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -3250,7 +4869,7 @@
         <v>44951</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="K13" s="8">
@@ -3258,27 +4877,27 @@
         <v>1080000</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-20000</v>
       </c>
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -3289,41 +4908,41 @@
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44951</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-20000</v>
       </c>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
-      <c r="B15" s="80">
+      <c r="B15" s="81">
         <v>44952</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="84" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -3340,35 +4959,35 @@
         <v>44952</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-20000</v>
       </c>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="12" t="s">
         <v>37</v>
       </c>
@@ -3383,35 +5002,35 @@
         <v>44952</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90000</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-20000</v>
       </c>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="19" t="s">
@@ -3426,37 +5045,37 @@
         <v>44952</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90000</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110000</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-20000</v>
       </c>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
-      <c r="B18" s="55">
+      <c r="B18" s="75">
         <v>44953</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="79" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -3473,38 +5092,38 @@
         <v>44953</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90000</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108000</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-20000</v>
       </c>
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="54" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="13">
@@ -3512,31 +5131,31 @@
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44953</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080000</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90000</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108000</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-18000</v>
       </c>
       <c r="P19" s="29"/>
@@ -3561,24 +5180,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3588,22 +5207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -3611,7 +5215,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C2" sqref="C2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3647,18 +5251,18 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -3671,11 +5275,11 @@
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -3704,43 +5308,43 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -3762,8 +5366,8 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -3777,7 +5381,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
@@ -3797,10 +5401,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="79">
+      <c r="B8" s="80">
         <v>44946</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -3840,8 +5444,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -3879,8 +5483,8 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -3918,10 +5522,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="80">
+      <c r="B11" s="81">
         <v>45293</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="86" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -3961,8 +5565,8 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="19" t="s">
         <v>37</v>
       </c>
@@ -4000,8 +5604,8 @@
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="52"/>
       <c r="E13" s="53"/>
       <c r="F13" s="12" t="s">
@@ -4039,10 +5643,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="79">
+      <c r="B14" s="80">
         <v>45311</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="83" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="44" t="s">
@@ -4082,8 +5686,8 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="19" t="s">
@@ -4121,8 +5725,8 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="12" t="s">
@@ -4160,10 +5764,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
-      <c r="B17" s="55">
+      <c r="B17" s="75">
         <v>45316</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="77" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4203,8 +5807,8 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="12" t="s">
@@ -4242,10 +5846,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
-      <c r="B19" s="55">
+      <c r="B19" s="75">
         <v>45316</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="79" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -4285,8 +5889,8 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="12" t="s">
@@ -4341,14 +5945,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B17:B18"/>
@@ -4359,20 +5955,28 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4414,13 +6018,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -4433,11 +6037,11 @@
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -4466,43 +6070,43 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -4524,8 +6128,8 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -4539,7 +6143,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="39" t="s">
         <v>34</v>
       </c>
@@ -4559,10 +6163,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="79">
+      <c r="B8" s="80">
         <v>44928</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -4602,8 +6206,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -4641,8 +6245,8 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -4680,10 +6284,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="55">
+      <c r="B11" s="75">
         <v>44940</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="77" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -4723,8 +6327,8 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -4762,10 +6366,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="55">
+      <c r="B13" s="75">
         <v>44951</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="79" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4805,8 +6409,8 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -4861,12 +6465,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="B11:B12"/>
@@ -4875,13 +6473,19 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4930,13 +6534,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -4948,11 +6552,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="32"/>
@@ -4979,42 +6583,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -5033,8 +6637,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -5048,7 +6652,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
@@ -5065,10 +6669,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="74">
         <v>44941</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -5104,8 +6708,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -5139,10 +6743,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55">
+      <c r="B10" s="75">
         <v>44943</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="77" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -5178,8 +6782,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
@@ -5229,11 +6833,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -5241,13 +6840,18 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5297,13 +6901,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -5315,11 +6919,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="32"/>
@@ -5346,42 +6950,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -5400,8 +7004,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -5415,7 +7019,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
@@ -5432,10 +7036,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="74">
         <v>44928</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -5471,8 +7075,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -5506,10 +7110,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55">
+      <c r="B10" s="75">
         <v>44941</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="77" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -5545,8 +7149,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
@@ -5580,8 +7184,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -5615,10 +7219,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58">
+      <c r="B13" s="78">
         <v>44943</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="79" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -5654,8 +7258,8 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -5705,12 +7309,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -5719,451 +7317,12 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29">
-        <f ca="1">COUNTIF(OFFSET(I6, 2, 0, 20, 1), "&gt;1")</f>
-        <v>3</v>
-      </c>
-      <c r="J3" s="29">
-        <f>COUNTIF(J8:J13, "&gt;1")</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="32">
-        <f ca="1">COUNTA(OFFSET(I6, 0, 1, 1, 20))</f>
-        <v>4</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="54">
-        <v>44928</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="20">
-        <v>2000000</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="38">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
-        <v>44928</v>
-      </c>
-      <c r="J8" s="42">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>2000000</v>
-      </c>
-      <c r="K8" s="42">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="42">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="42">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="38">
-        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
-        <v>44928</v>
-      </c>
-      <c r="J9" s="42">
-        <f t="shared" ref="J9:J13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>2000000</v>
-      </c>
-      <c r="K9" s="42">
-        <f t="shared" ref="K9:K13" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="42">
-        <f t="shared" ref="L9:L13" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>2000000</v>
-      </c>
-      <c r="M9" s="42">
-        <f t="shared" ref="M9:M13" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K10" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L10" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M10" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K11" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L11" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M11" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L12" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M12" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K13" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L13" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M13" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I16" s="1">
-        <f>SUMIF(J6:M6, "=ACTIVA", J9:M9)</f>
-        <v>2000000</v>
-      </c>
-      <c r="J16" s="2">
-        <f ca="1">SUM(OFFSET(I6,2,1,1,6))</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="1">
-        <f>SUMIF(J7:M7, "=PASIVA", J10:M10)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -8,25 +8,27 @@
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="7" r:id="rId1"/>
-    <sheet name="Loan ke QDC" sheetId="16" r:id="rId2"/>
-    <sheet name="Loan Dari QDC (Bayar Telat)" sheetId="14" r:id="rId3"/>
-    <sheet name="Loan dari QDC (Bayar Tepat)" sheetId="11" r:id="rId4"/>
-    <sheet name="Sales Invoice Disertai Retur" sheetId="12" r:id="rId5"/>
-    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId6"/>
-    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId7"/>
-    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId8"/>
-    <sheet name="ARF Normal" sheetId="4" r:id="rId9"/>
-    <sheet name="Template" sheetId="6" r:id="rId10"/>
-    <sheet name="Debit Note (3)" sheetId="3" r:id="rId11"/>
-    <sheet name="Debit Note (2)" sheetId="2" r:id="rId12"/>
-    <sheet name="Debit Note" sheetId="1" r:id="rId13"/>
+    <sheet name="QDC sbg Penerima Talangan" sheetId="18" r:id="rId2"/>
+    <sheet name="QDC sebagai Pemberi Talangan" sheetId="17" r:id="rId3"/>
+    <sheet name="Loan ke QDC" sheetId="16" r:id="rId4"/>
+    <sheet name="Loan Dari QDC (Bayar Telat)" sheetId="14" r:id="rId5"/>
+    <sheet name="Loan dari QDC (Bayar Tepat)" sheetId="11" r:id="rId6"/>
+    <sheet name="Sales Invoice Disertai Retur" sheetId="12" r:id="rId7"/>
+    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId8"/>
+    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId9"/>
+    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId10"/>
+    <sheet name="ARF Normal" sheetId="4" r:id="rId11"/>
+    <sheet name="Template" sheetId="6" r:id="rId12"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId13"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId14"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="74">
   <si>
     <t>Pembelian Barang</t>
   </si>
@@ -210,6 +212,45 @@
   <si>
     <t>Sales Invoice diterbitkan ---&gt; Customer membayar Piutang secara penuh ---&gt; Customer menerbitkan Credit Note ---&gt; Penjual mengembalikan uang kepada Csutomer</t>
   </si>
+  <si>
+    <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>AR Non Trade</t>
+  </si>
+  <si>
+    <t>Penalangan Dana</t>
+  </si>
+  <si>
+    <t>Penerbitan Tagihan untuk Reimbursement</t>
+  </si>
+  <si>
+    <t>Penerimaan dana Reimbursement</t>
+  </si>
+  <si>
+    <t>AP Non Trade</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>QDC menerima Dana Talangan</t>
+  </si>
+  <si>
+    <t>QDC memberikan talangan</t>
+  </si>
+  <si>
+    <t>Penerimaan Dana Talangan</t>
+  </si>
+  <si>
+    <t>Pembayaran Dana Talangan ke Customer/ Vendor</t>
+  </si>
+  <si>
+    <t>Dana Talangan Dijadikan Biaya</t>
+  </si>
+  <si>
+    <t>Dana Talangan Diklaim sehingga tidak dijadikan biaya</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -878,6 +919,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -935,24 +1000,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,9 +1018,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,32 +1060,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,11 +1420,11 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -1392,11 +1436,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -1423,42 +1467,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -1477,8 +1521,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
@@ -1507,10 +1551,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="74">
+      <c r="B8" s="57">
         <v>44928</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="59" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1546,8 +1590,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -1581,8 +1625,8 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -1612,8 +1656,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -1643,8 +1687,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
@@ -1674,8 +1718,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -1721,12 +1765,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -1735,6 +1773,12 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -1742,6 +1786,850 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="80"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="57">
+        <v>44941</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1500000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44941</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="42">
+        <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="0"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I11" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44941</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:J11" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" ref="K9:K11" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-1500000</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" ref="L9:L11" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" ref="M9:M11" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-1500000</v>
+      </c>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="58">
+        <v>44943</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="80"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="57">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="42">
+        <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="L8" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:J14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-2000000</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" ref="K9:K14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" ref="L9:L14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" ref="M9:M14" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="58">
+        <v>44941</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="1"/>
+        <v>44941</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20">
+        <v>500000</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="1"/>
+        <v>44941</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="4"/>
+        <v>-500000</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
+        <f t="shared" si="1"/>
+        <v>44941</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="2"/>
+        <v>-2000000</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="4"/>
+        <v>-500000</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="61">
+        <v>44943</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="42">
+        <f t="shared" si="4"/>
+        <v>-500000</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13">
+        <v>500000</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
+        <f t="shared" si="1"/>
+        <v>44943</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="2"/>
+        <v>-1500000</v>
+      </c>
+      <c r="K14" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="5"/>
+        <v>-1500000</v>
+      </c>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
@@ -1791,11 +2679,11 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -1807,11 +2695,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29">
         <f ca="1">COUNTIF(OFFSET(I6, 2, 0, 20, 1), "&gt;1")</f>
@@ -1847,42 +2735,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -1901,8 +2789,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
@@ -1931,10 +2819,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="74">
+      <c r="B8" s="57">
         <v>44928</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="59" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1970,8 +2858,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -2005,8 +2893,8 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -2036,8 +2924,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -2067,8 +2955,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
@@ -2098,8 +2986,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -2163,6 +3051,1984 @@
         <f>SUMIF(J7:M7, "=PASIVA", J10:M10)</f>
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="I2" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="58">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="58">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="58"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="58">
+        <v>44946</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="58"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="58">
+        <v>44951</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="58"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="I2" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="58">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="58">
+        <v>44936</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="58"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="58">
+        <v>44941</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>800000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="58"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>800000</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="3"/>
+        <v>-800000</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="I2" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="58">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="58">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="58"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="80"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="57">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="58">
+        <v>44936</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>44936</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>44936</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="61">
+        <v>44941</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>44941</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
+        <f t="shared" si="0"/>
+        <v>44941</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="L13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="76"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="57">
+        <v>44928</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="38">
+        <f>IF(OR(NOT(EXACT($E18, "")), NOT(EXACT($G18, ""))), IF(EXACT($B18, ""), I17, $B18), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J18" s="42">
+        <f>IF(OR(NOT(EXACT($E18, "")), NOT(EXACT($G18, ""))), (IF(ISNUMBER(J17), J17, 0) + IF(EXACT(J$7, $D18), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E18), IF(EXACT(J$7, $F18), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G18), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K18" s="42">
+        <f>IF(OR(NOT(EXACT($E18, "")), NOT(EXACT($G18, ""))), (IF(ISNUMBER(K17), K17, 0) + IF(EXACT(K$7, $D18), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E18), IF(EXACT(K$7, $F18), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G18), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="42">
+        <f>IF(OR(NOT(EXACT($E18, "")), NOT(EXACT($G18, ""))), (IF(ISNUMBER(L17), L17, 0) + IF(EXACT(L$7, $D18), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E18), IF(EXACT(L$7, $F18), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G18), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="42">
+        <f>IF(OR(NOT(EXACT($E18, "")), NOT(EXACT($G18, ""))), (IF(ISNUMBER(M17), M17, 0) + IF(EXACT(M$7, $D18), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E18), IF(EXACT(M$7, $F18), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G18), 0))), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="58"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="38">
+        <f t="shared" ref="I19:I23" si="2">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), IF(EXACT($B19, ""), I18, $B19), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" ref="J19:M19" si="3">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(J18), J18, 0) + IF(EXACT(J$7, $D19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(J$7, $F19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="M19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="58">
+        <v>44936</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="38">
+        <f t="shared" si="2"/>
+        <v>44936</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" ref="J20:M20" si="4">IF(OR(NOT(EXACT($E20, "")), NOT(EXACT($G20, ""))), (IF(ISNUMBER(J19), J19, 0) + IF(EXACT(J$7, $D20), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E20), IF(EXACT(J$7, $F20), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G20), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K20" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="38">
+        <f t="shared" si="2"/>
+        <v>44936</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" ref="J21:M21" si="5">IF(OR(NOT(EXACT($E21, "")), NOT(EXACT($G21, ""))), (IF(ISNUMBER(J20), J20, 0) + IF(EXACT(J$7, $D21), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E21), IF(EXACT(J$7, $F21), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G21), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K21" s="42">
+        <f t="shared" si="5"/>
+        <v>-2000000</v>
+      </c>
+      <c r="L21" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="61">
+        <v>44941</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="38">
+        <f t="shared" si="2"/>
+        <v>44941</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" ref="J22:M22" si="6">IF(OR(NOT(EXACT($E22, "")), NOT(EXACT($G22, ""))), (IF(ISNUMBER(J21), J21, 0) + IF(EXACT(J$7, $D22), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E22), IF(EXACT(J$7, $F22), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G22), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="38">
+        <f t="shared" si="2"/>
+        <v>44941</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" ref="J23:M23" si="7">IF(OR(NOT(EXACT($E23, "")), NOT(EXACT($G23, ""))), (IF(ISNUMBER(J22), J22, 0) + IF(EXACT(J$7, $D23), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E23), IF(EXACT(J$7, $F23), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G23), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="80"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="57">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>2000000</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="58">
+        <v>44936</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>44936</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>44936</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="61">
+        <v>44941</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>44941</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
+        <f t="shared" si="0"/>
+        <v>44941</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2186,803 +5052,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="75">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="75"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="75">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="75"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="75">
-        <v>44946</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="75"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="75">
-        <v>44951</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="75"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="75">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="75"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="75">
-        <v>44936</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="75"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="75">
-        <v>44941</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>800000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="75"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="13">
-        <v>800000</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>-800000</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="75">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="75"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="75">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="75"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -3025,13 +5102,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -3044,11 +5121,11 @@
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -3077,43 +5154,43 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -3135,8 +5212,8 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -3150,7 +5227,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
@@ -3158,7 +5235,7 @@
       <c r="L7" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="55" t="s">
         <v>57</v>
       </c>
       <c r="N7" s="41" t="s">
@@ -3168,10 +5245,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="74">
+      <c r="B8" s="57">
         <v>44928</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="59" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3211,8 +5288,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3250,10 +5327,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="75">
+      <c r="B10" s="58">
         <v>44959</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="60" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3293,8 +5370,8 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
@@ -3332,10 +5409,10 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="75">
+      <c r="B12" s="58">
         <v>45000</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="60" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -3375,8 +5452,8 @@
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="19" t="s">
         <v>56</v>
       </c>
@@ -3414,8 +5491,8 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="77"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="19" t="s">
         <v>57</v>
       </c>
@@ -3453,8 +5530,8 @@
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="12" t="s">
@@ -3468,23 +5545,23 @@
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="56">
         <f t="shared" si="1"/>
         <v>-30000</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="95">
+      <c r="L15" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="95">
+      <c r="M15" s="56">
         <f t="shared" si="4"/>
         <v>-25000</v>
       </c>
-      <c r="N15" s="95">
+      <c r="N15" s="56">
         <f t="shared" si="5"/>
         <v>-5000</v>
       </c>
@@ -3509,12 +5586,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:N5"/>
@@ -3523,13 +5594,19 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3578,13 +5655,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -3596,11 +5673,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -3627,42 +5704,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -3681,8 +5758,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -3696,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>46</v>
       </c>
@@ -3711,10 +5788,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="74">
+      <c r="B8" s="57">
         <v>44928</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3750,8 +5827,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3785,10 +5862,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="75">
+      <c r="B10" s="58">
         <v>44972</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="60" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3824,8 +5901,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="77"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="19" t="s">
@@ -3859,8 +5936,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -3894,8 +5971,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="14"/>
@@ -3925,19 +6002,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="H14" s="29"/>
       <c r="I14" s="38" t="str">
-        <f t="shared" ref="I9:I14" si="5">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), IF(EXACT($B14, ""), I13, $B14), "")</f>
+        <f t="shared" ref="I14" si="5">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), IF(EXACT($B14, ""), I13, $B14), "")</f>
         <v/>
       </c>
       <c r="J14" s="42" t="str">
-        <f t="shared" ref="J9:M14" si="6">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), (IF(ISNUMBER(J13), J13, 0) + IF(EXACT(J$7, $D14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E14), IF(EXACT(J$7, $F14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G14), 0))), "")</f>
+        <f t="shared" ref="J14:M14" si="6">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), (IF(ISNUMBER(J13), J13, 0) + IF(EXACT(J$7, $D14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E14), IF(EXACT(J$7, $F14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G14), 0))), "")</f>
         <v/>
       </c>
       <c r="K14" s="42" t="str">
@@ -3972,12 +6049,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -3986,13 +6057,19 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4041,13 +6118,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -4059,11 +6136,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -4090,42 +6167,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -4144,8 +6221,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -4159,7 +6236,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>46</v>
       </c>
@@ -4172,10 +6249,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="74">
+      <c r="B8" s="57">
         <v>44928</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -4211,8 +6288,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -4246,10 +6323,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="75">
+      <c r="B10" s="58">
         <v>44959</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="60" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -4285,8 +6362,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
@@ -4320,8 +6397,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
@@ -4351,8 +6428,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -4398,6 +6475,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -4406,19 +6489,13 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -4471,13 +6548,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -4491,11 +6568,11 @@
     <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -4526,44 +6603,44 @@
     </row>
     <row r="5" spans="1:16" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -4588,8 +6665,8 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -4603,7 +6680,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
@@ -4626,10 +6703,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="80">
+      <c r="B8" s="82">
         <v>44946</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="85" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -4673,8 +6750,8 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -4716,8 +6793,8 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -4759,10 +6836,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="75">
+      <c r="B11" s="58">
         <v>44948</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -4806,8 +6883,8 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -4849,10 +6926,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="75">
+      <c r="B13" s="58">
         <v>44951</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4896,8 +6973,8 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -4939,10 +7016,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
-      <c r="B15" s="81">
+      <c r="B15" s="83">
         <v>44952</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="86" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -4986,8 +7063,8 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="12" t="s">
         <v>37</v>
       </c>
@@ -5029,8 +7106,8 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="19" t="s">
@@ -5072,10 +7149,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
-      <c r="B18" s="75">
+      <c r="B18" s="58">
         <v>44953</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -5119,8 +7196,8 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="54" t="s">
@@ -5180,12 +7257,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B15:B17"/>
@@ -5194,10 +7269,12 @@
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -5207,7 +7284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -5256,13 +7333,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -5275,11 +7352,11 @@
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -5308,43 +7385,43 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -5366,8 +7443,8 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -5381,7 +7458,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
@@ -5401,10 +7478,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="80">
+      <c r="B8" s="82">
         <v>44946</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="85" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -5444,8 +7521,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -5483,8 +7560,8 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -5522,10 +7599,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="81">
+      <c r="B11" s="83">
         <v>45293</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="94" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -5565,8 +7642,8 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="19" t="s">
         <v>37</v>
       </c>
@@ -5604,8 +7681,8 @@
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="52"/>
       <c r="E13" s="53"/>
       <c r="F13" s="12" t="s">
@@ -5643,10 +7720,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="80">
+      <c r="B14" s="82">
         <v>45311</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="85" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="44" t="s">
@@ -5686,8 +7763,8 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="19" t="s">
@@ -5725,8 +7802,8 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="12" t="s">
@@ -5764,10 +7841,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
-      <c r="B17" s="75">
+      <c r="B17" s="58">
         <v>45316</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -5807,8 +7884,8 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="12" t="s">
@@ -5846,10 +7923,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
-      <c r="B19" s="75">
+      <c r="B19" s="58">
         <v>45316</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -5889,8 +7966,8 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="12" t="s">
@@ -5945,6 +8022,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B17:B18"/>
@@ -5955,21 +8040,13 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -6018,13 +8095,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -6037,11 +8114,11 @@
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -6070,43 +8147,43 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="81" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -6128,8 +8205,8 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -6143,7 +8220,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="39" t="s">
         <v>34</v>
       </c>
@@ -6163,10 +8240,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="80">
+      <c r="B8" s="82">
         <v>44928</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="85" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -6206,8 +8283,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -6245,8 +8322,8 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -6284,10 +8361,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="75">
+      <c r="B11" s="58">
         <v>44940</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -6327,8 +8404,8 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -6366,10 +8443,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="75">
+      <c r="B13" s="58">
         <v>44951</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -6409,8 +8486,8 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -6465,6 +8542,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="B11:B12"/>
@@ -6473,856 +8556,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="74">
-        <v>44941</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1500000</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="38">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
-        <v>44941</v>
-      </c>
-      <c r="J8" s="42">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="42">
-        <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="42">
-        <f t="shared" si="0"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1500000</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="38">
-        <f t="shared" ref="I9:I11" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
-        <v>44941</v>
-      </c>
-      <c r="J9" s="42">
-        <f t="shared" ref="J9:J11" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
-        <f t="shared" ref="K9:K11" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>-1500000</v>
-      </c>
-      <c r="L9" s="42">
-        <f t="shared" ref="L9:L11" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
-        <f t="shared" ref="M9:M11" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>-1500000</v>
-      </c>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="75">
-        <v>44943</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1500000</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="38">
-        <f t="shared" si="1"/>
-        <v>44943</v>
-      </c>
-      <c r="J10" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="42">
-        <f t="shared" si="5"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1500000</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="38">
-        <f t="shared" si="1"/>
-        <v>44943</v>
-      </c>
-      <c r="J11" s="42">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-      <c r="K11" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="42">
-        <f t="shared" si="5"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="74">
-        <v>44928</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="20">
-        <v>2000000</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="38">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
-        <v>44928</v>
-      </c>
-      <c r="J8" s="42">
-        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="42">
-        <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
-        <v>2000000</v>
-      </c>
-      <c r="L8" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="38">
-        <f t="shared" ref="I9:I14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
-        <v>44928</v>
-      </c>
-      <c r="J9" s="42">
-        <f t="shared" ref="J9:J14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>-2000000</v>
-      </c>
-      <c r="K9" s="42">
-        <f t="shared" ref="K9:K14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>2000000</v>
-      </c>
-      <c r="L9" s="42">
-        <f t="shared" ref="L9:L14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
-        <f t="shared" ref="M9:M14" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="75">
-        <v>44941</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1500000</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="38">
-        <f t="shared" si="1"/>
-        <v>44941</v>
-      </c>
-      <c r="J10" s="42">
-        <f t="shared" si="2"/>
-        <v>-2000000</v>
-      </c>
-      <c r="K10" s="42">
-        <f t="shared" si="3"/>
-        <v>2000000</v>
-      </c>
-      <c r="L10" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="42">
-        <f t="shared" si="5"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="20">
-        <v>500000</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="38">
-        <f t="shared" si="1"/>
-        <v>44941</v>
-      </c>
-      <c r="J11" s="42">
-        <f t="shared" si="2"/>
-        <v>-2000000</v>
-      </c>
-      <c r="K11" s="42">
-        <f t="shared" si="3"/>
-        <v>2000000</v>
-      </c>
-      <c r="L11" s="42">
-        <f t="shared" si="4"/>
-        <v>-500000</v>
-      </c>
-      <c r="M11" s="42">
-        <f t="shared" si="5"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="38">
-        <f t="shared" si="1"/>
-        <v>44941</v>
-      </c>
-      <c r="J12" s="42">
-        <f t="shared" si="2"/>
-        <v>-2000000</v>
-      </c>
-      <c r="K12" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="42">
-        <f t="shared" si="4"/>
-        <v>-500000</v>
-      </c>
-      <c r="M12" s="42">
-        <f t="shared" si="5"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="78">
-        <v>44943</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="11">
-        <v>500000</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="38">
-        <f t="shared" si="1"/>
-        <v>44943</v>
-      </c>
-      <c r="J13" s="42">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-      <c r="K13" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="42">
-        <f t="shared" si="4"/>
-        <v>-500000</v>
-      </c>
-      <c r="M13" s="42">
-        <f t="shared" si="5"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="13">
-        <v>500000</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="38">
-        <f t="shared" si="1"/>
-        <v>44943</v>
-      </c>
-      <c r="J14" s="42">
-        <f t="shared" si="2"/>
-        <v>-1500000</v>
-      </c>
-      <c r="K14" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="42">
-        <f t="shared" si="5"/>
-        <v>-1500000</v>
-      </c>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="7" r:id="rId1"/>
-    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId2"/>
-    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId3"/>
-    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId4"/>
-    <sheet name="ARF Normal" sheetId="4" r:id="rId5"/>
-    <sheet name="Template" sheetId="6" r:id="rId6"/>
-    <sheet name="Debit Note (3)" sheetId="3" r:id="rId7"/>
-    <sheet name="Debit Note (2)" sheetId="2" r:id="rId8"/>
-    <sheet name="Debit Note" sheetId="1" r:id="rId9"/>
+    <sheet name="Purchase Invoice Normal" sheetId="11" r:id="rId2"/>
+    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId3"/>
+    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId4"/>
+    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId5"/>
+    <sheet name="ARF Normal" sheetId="4" r:id="rId6"/>
+    <sheet name="Template" sheetId="6" r:id="rId7"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId8"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId9"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="49">
   <si>
     <t>Pembelian Barang</t>
   </si>
@@ -152,6 +153,24 @@
   <si>
     <t>Penerbitan Invoice di 2023</t>
   </si>
+  <si>
+    <t>VAT In</t>
+  </si>
+  <si>
+    <t>WH Tax 23</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Saat Pembayaran Supplier</t>
+  </si>
+  <si>
+    <t>Saat Pembayaran WHT</t>
+  </si>
+  <si>
+    <t>Pencatatan Invoice</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -603,11 +622,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -664,42 +713,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,24 +727,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -743,123 +738,201 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,161 +1271,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44928</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1363,33 +1436,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -1398,180 +1471,924 @@
       <c r="G9" s="13">
         <v>2000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:M13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K9" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="69">
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="42">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="M9" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="47"/>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65" t="str">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="69" t="str">
+      <c r="J10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K10" s="69" t="str">
+      <c r="K10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M10" s="69" t="str">
+      <c r="M10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65" t="str">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="69" t="str">
+      <c r="J11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K11" s="69" t="str">
+      <c r="K11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M11" s="69" t="str">
+      <c r="M11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65" t="str">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="69" t="str">
+      <c r="J12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K12" s="69" t="str">
+      <c r="K12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M12" s="69" t="str">
+      <c r="M12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65" t="str">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="69" t="str">
+      <c r="J13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K13" s="69" t="str">
+      <c r="K13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M13" s="69" t="str">
+      <c r="M13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="55">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="55"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="55">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="55"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="93">
+        <v>44928</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>-1000000</v>
+      </c>
+      <c r="N8" s="8">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I15" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>44928</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:J15" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" ref="K9:K15" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>100000</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ref="L9:L15" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ref="M9:M15" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>-1000000</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ref="N9:N15" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>44928</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="4"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1080000</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>44928</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="3"/>
+        <v>1080000</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="4"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="58">
+        <v>44931</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1080000</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>44931</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="4"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1080000</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
+        <f t="shared" si="0"/>
+        <v>44931</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>-1080000</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="4"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="58">
+        <v>44934</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
+        <f t="shared" si="0"/>
+        <v>44934</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>-1080000</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="4"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="38">
+        <f t="shared" si="0"/>
+        <v>44934</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
+        <v>-1100000</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="4"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
@@ -1583,14 +2400,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1611,188 +2428,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="37" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="80">
+      <c r="A8" s="29"/>
+      <c r="B8" s="79">
         <v>44946</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="45">
         <v>1100000</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44946</v>
       </c>
@@ -1816,11 +2633,11 @@
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="O8" s="47"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="83"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -1830,36 +2647,36 @@
       <c r="G9" s="20">
         <v>1000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I18" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44946</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J18" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1100000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K18" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:N18" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1000000</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="47"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="84"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -1869,39 +2686,39 @@
       <c r="G10" s="13">
         <v>100000</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="0"/>
         <v>44946</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="47"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="82">
+      <c r="A11" s="29"/>
+      <c r="B11" s="80">
         <v>45293</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1910,38 +2727,38 @@
       <c r="E11" s="11">
         <v>1000000</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>45293</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="47"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="83"/>
       <c r="D12" s="19" t="s">
         <v>37</v>
@@ -1949,120 +2766,120 @@
       <c r="E12" s="20">
         <v>100000</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65">
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
         <f t="shared" si="0"/>
         <v>45293</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12" s="47"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="84"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="13">
         <v>1100000</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
         <f t="shared" si="0"/>
         <v>45293</v>
       </c>
-      <c r="J13" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="69">
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="47"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="80">
+      <c r="A14" s="29"/>
+      <c r="B14" s="79">
         <v>45311</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="45">
         <v>550000</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="65">
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
         <f t="shared" si="0"/>
         <v>45311</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O14" s="47"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="83"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
@@ -2072,36 +2889,36 @@
       <c r="G15" s="20">
         <v>500000</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="65">
+      <c r="H15" s="29"/>
+      <c r="I15" s="38">
         <f t="shared" si="0"/>
         <v>45311</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="47"/>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="84"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
@@ -2111,39 +2928,39 @@
       <c r="G16" s="13">
         <v>50000</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="65">
+      <c r="H16" s="29"/>
+      <c r="I16" s="38">
         <f t="shared" si="0"/>
         <v>45311</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="42">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="47"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="24">
+      <c r="A17" s="29"/>
+      <c r="B17" s="55">
         <v>45316</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -2154,37 +2971,37 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="65">
+      <c r="H17" s="29"/>
+      <c r="I17" s="38">
         <f t="shared" si="0"/>
         <v>45316</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="42">
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="42">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="42">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="47"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="12" t="s">
@@ -2193,39 +3010,39 @@
       <c r="G18" s="13">
         <v>540000</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="65">
+      <c r="H18" s="29"/>
+      <c r="I18" s="38">
         <f t="shared" si="0"/>
         <v>45316</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="42">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="42">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="42">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="42">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" s="47"/>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="24">
+      <c r="A19" s="29"/>
+      <c r="B19" s="55">
         <v>45316</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="59" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -2236,37 +3053,37 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="65">
+      <c r="H19" s="29"/>
+      <c r="I19" s="38">
         <f t="shared" ref="I19:I20" si="4">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), IF(EXACT($B19, ""), I18, $B19), "")</f>
         <v>45316</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="42">
         <f t="shared" ref="J19:J20" si="5">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(J18), J18, 0) + IF(EXACT(J$7, $D19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(J$7, $F19), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
         <v>10000</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="42">
         <f t="shared" ref="K19:K20" si="6">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(K18), K18, 0) + IF(EXACT(K$7, $D19), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(K$7, $F19), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
         <v>540000</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="42">
         <f t="shared" ref="L19:N20" si="7">IF(OR(NOT(EXACT($E19, "")), NOT(EXACT($G19, ""))), (IF(ISNUMBER(L18), L18, 0) + IF(EXACT(L$7, $D19), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E19), IF(EXACT(L$7, $F19), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G19), 0))), "")</f>
         <v>500000</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="42">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="42">
         <f t="shared" si="7"/>
         <v>-10000</v>
       </c>
-      <c r="O19" s="47"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="12" t="s">
@@ -2275,52 +3092,60 @@
       <c r="G20" s="13">
         <v>10000</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="65">
+      <c r="H20" s="29"/>
+      <c r="I20" s="38">
         <f t="shared" si="4"/>
         <v>45316</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="42">
         <f t="shared" si="6"/>
         <v>540000</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="42">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="42">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="N20" s="69">
+      <c r="N20" s="42">
         <f t="shared" si="7"/>
         <v>-10000</v>
       </c>
-      <c r="O20" s="47"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B17:B18"/>
@@ -2331,21 +3156,13 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -2373,201 +3190,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="80">
+      <c r="A8" s="29"/>
+      <c r="B8" s="79">
         <v>44928</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="45">
         <v>1100000</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>1100000</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="83"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -2577,32 +3394,32 @@
       <c r="G9" s="20">
         <v>1000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I14" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1100000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1000000</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="84"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2612,35 +3429,35 @@
       <c r="G10" s="13">
         <v>100000</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="0"/>
         <v>44928</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="24">
+      <c r="A11" s="29"/>
+      <c r="B11" s="55">
         <v>44940</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2651,33 +3468,33 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>44940</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="1"/>
         <v>1100000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -2686,115 +3503,109 @@
       <c r="G12" s="13">
         <v>1100000</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
         <f t="shared" si="0"/>
         <v>44940</v>
       </c>
-      <c r="J12" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="69">
+      <c r="J12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="42">
         <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="42">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="42">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65" t="str">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="69" t="str">
+      <c r="J13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K13" s="69" t="str">
+      <c r="K13" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="69" t="str">
+      <c r="M13" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="65" t="str">
+      <c r="H14" s="29"/>
+      <c r="I14" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="69" t="str">
+      <c r="J14" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K14" s="69" t="str">
+      <c r="K14" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L14" s="69" t="str">
+      <c r="L14" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M14" s="69" t="str">
+      <c r="M14" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -2803,13 +3614,19 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2838,165 +3655,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44941</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3007,33 +3824,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44941</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="69">
+      <c r="L8" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
         <f t="shared" si="0"/>
         <v>-1500000</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3042,35 +3859,35 @@
       <c r="G9" s="13">
         <v>1500000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I11" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44941</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J11" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K11" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>-1500000</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L11" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M11" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>-1500000</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24">
+      <c r="A10" s="29"/>
+      <c r="B10" s="55">
         <v>44943</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -3081,33 +3898,33 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
@@ -3116,47 +3933,52 @@
       <c r="G11" s="13">
         <v>1500000</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="2"/>
         <v>-1500000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -3164,18 +3986,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3205,165 +4022,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44928</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3374,33 +4191,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f t="shared" ref="K8:M8" si="0">IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="L8" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="47"/>
+      <c r="L8" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3409,35 +4226,35 @@
       <c r="G9" s="13">
         <v>2000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>-2000000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M14" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24">
+      <c r="A10" s="29"/>
+      <c r="B10" s="55">
         <v>44941</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3448,33 +4265,33 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="42">
         <f t="shared" si="2"/>
         <v>-2000000</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="42">
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
@@ -3483,33 +4300,33 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="J11" s="69">
+      <c r="J11" s="42">
         <f t="shared" si="2"/>
         <v>-2000000</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="42">
         <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="42">
         <f t="shared" si="4"/>
         <v>-500000</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -3518,35 +4335,35 @@
       <c r="G12" s="13">
         <v>2000000</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38">
         <f t="shared" si="1"/>
         <v>44941</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="42">
         <f t="shared" si="2"/>
         <v>-2000000</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="42">
         <f t="shared" si="4"/>
         <v>-500000</v>
       </c>
-      <c r="M12" s="69">
+      <c r="M12" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53">
+      <c r="A13" s="29"/>
+      <c r="B13" s="58">
         <v>44943</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="59" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -3557,33 +4374,33 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="42">
         <f t="shared" si="2"/>
         <v>-1500000</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13" s="69">
+      <c r="L13" s="42">
         <f t="shared" si="4"/>
         <v>-500000</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -3592,47 +4409,53 @@
       <c r="G14" s="13">
         <v>500000</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="65">
+      <c r="H14" s="29"/>
+      <c r="I14" s="38">
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="42">
         <f t="shared" si="2"/>
         <v>-1500000</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="69">
+      <c r="M14" s="42">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
-      <c r="N14" s="47"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -3641,19 +4464,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
@@ -3683,170 +4500,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29">
         <f ca="1">COUNTIF(OFFSET(I6, 2, 0, 20, 1), "&gt;1")</f>
         <v>3</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="29">
         <f>COUNTIF(J8:J13, "&gt;1")</f>
         <v>2</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="32">
         <f ca="1">COUNTA(OFFSET(I6, 0, 1, 1, 20))</f>
         <v>4</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="51"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="66" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33">
+      <c r="A8" s="29"/>
+      <c r="B8" s="54">
         <v>44928</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3857,33 +4674,33 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="65">
+      <c r="H8" s="29"/>
+      <c r="I8" s="38">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
         <v>44928</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="42">
         <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N8" s="47"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3892,168 +4709,168 @@
       <c r="G9" s="13">
         <v>2000000</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="65">
+      <c r="H9" s="29"/>
+      <c r="I9" s="38">
         <f t="shared" ref="I9:I13" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="42">
         <f t="shared" ref="J9:J13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="42">
         <f t="shared" ref="K9:K13" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="42">
         <f t="shared" ref="L9:L13" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>2000000</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="42">
         <f t="shared" ref="M9:M13" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="65" t="str">
+      <c r="H10" s="29"/>
+      <c r="I10" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="69" t="str">
+      <c r="J10" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K10" s="69" t="str">
+      <c r="K10" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M10" s="69" t="str">
+      <c r="M10" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="65" t="str">
+      <c r="H11" s="29"/>
+      <c r="I11" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="69" t="str">
+      <c r="J11" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K11" s="69" t="str">
+      <c r="K11" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M11" s="69" t="str">
+      <c r="M11" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="65" t="str">
+      <c r="H12" s="29"/>
+      <c r="I12" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="69" t="str">
+      <c r="J12" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K12" s="69" t="str">
+      <c r="K12" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="69" t="str">
+      <c r="M12" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N12" s="47"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="65" t="str">
+      <c r="H13" s="29"/>
+      <c r="I13" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="69" t="str">
+      <c r="J13" s="42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K13" s="69" t="str">
+      <c r="K13" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="69" t="str">
+      <c r="M13" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N13" s="47"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I15" s="1" t="s">
@@ -4078,12 +4895,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -4092,13 +4903,19 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
@@ -4121,35 +4938,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="92"/>
       <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
@@ -4161,8 +4978,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4186,10 +5003,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24">
+      <c r="B5" s="55">
         <v>44928</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="86" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -4214,8 +5031,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
@@ -4238,10 +5055,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="24">
+      <c r="B7" s="55">
         <v>44941</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="86" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -4266,8 +5083,8 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="12" t="s">
@@ -4290,10 +5107,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="24">
+      <c r="B9" s="55">
         <v>44946</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="86" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4318,8 +5135,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -4342,10 +5159,10 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="24">
+      <c r="B11" s="55">
         <v>44951</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="86" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -4370,8 +5187,8 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -4395,6 +5212,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B5:B6"/>
@@ -4403,19 +5226,13 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K10"/>
   <sheetViews>
@@ -4438,35 +5255,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="92"/>
       <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
@@ -4478,8 +5295,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4503,10 +5320,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24">
+      <c r="B5" s="55">
         <v>44928</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="86" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -4531,8 +5348,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
@@ -4555,10 +5372,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="24">
+      <c r="B7" s="55">
         <v>44936</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -4583,8 +5400,8 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="12" t="s">
@@ -4607,10 +5424,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="24">
+      <c r="B9" s="55">
         <v>44941</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="86" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -4635,8 +5452,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -4660,227 +5477,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K8" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I8" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="24">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Others/COA Auto Journal.xlsx
@@ -8,22 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="7" r:id="rId1"/>
-    <sheet name="Purchase Invoice Normal" sheetId="11" r:id="rId2"/>
-    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId3"/>
-    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId4"/>
-    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId5"/>
-    <sheet name="ARF Normal" sheetId="4" r:id="rId6"/>
-    <sheet name="Template" sheetId="6" r:id="rId7"/>
-    <sheet name="Debit Note (3)" sheetId="3" r:id="rId8"/>
-    <sheet name="Debit Note (2)" sheetId="2" r:id="rId9"/>
-    <sheet name="Debit Note" sheetId="1" r:id="rId10"/>
+    <sheet name="Purchase Invoice + Amortisasi" sheetId="13" r:id="rId2"/>
+    <sheet name="Purchase Invoice + Depresiasi" sheetId="12" r:id="rId3"/>
+    <sheet name="Purchase Invoice Normal" sheetId="14" r:id="rId4"/>
+    <sheet name="Sales Invoice direvisi" sheetId="10" r:id="rId5"/>
+    <sheet name="Sales Invoice Normal" sheetId="8" r:id="rId6"/>
+    <sheet name="ARF Disettle Sebelum Pencairan" sheetId="5" r:id="rId7"/>
+    <sheet name="ARF Normal" sheetId="4" r:id="rId8"/>
+    <sheet name="Template" sheetId="6" r:id="rId9"/>
+    <sheet name="Debit Note (3)" sheetId="3" r:id="rId10"/>
+    <sheet name="Debit Note (2)" sheetId="2" r:id="rId11"/>
+    <sheet name="Debit Note" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="64">
   <si>
     <t>Pembelian Barang</t>
   </si>
@@ -171,6 +173,51 @@
   <si>
     <t>Pencatatan Invoice</t>
   </si>
+  <si>
+    <t>Fixed Asset</t>
+  </si>
+  <si>
+    <t>Beban Penyusutan</t>
+  </si>
+  <si>
+    <t>Akumulasi Depresiasi FA</t>
+  </si>
+  <si>
+    <t>Pembayaran Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>Penyewaan Gedung</t>
+  </si>
+  <si>
+    <t>Biaya Sewa</t>
+  </si>
+  <si>
+    <t>WHT Tax 4(2)</t>
+  </si>
+  <si>
+    <t>Purchase Invoice atas Sewa Gedung yang diamortisasi selama 12 bulan</t>
+  </si>
+  <si>
+    <t>Saat Terima Invoice</t>
+  </si>
+  <si>
+    <t>Pembayaran Invoice Supplier</t>
+  </si>
+  <si>
+    <t>Purchase Invoice atas Pembelian Asset Tetap yang didepresiasi selama 48 bulan</t>
+  </si>
+  <si>
+    <t>Pembelian Barang atau Material Tanpa Terkena Amortisasi dan Depresiasi</t>
+  </si>
+  <si>
+    <t>Saat Pembayaran Sewa Gudang (Berulang 12x)</t>
+  </si>
+  <si>
+    <t>Saat Jurnal Amortisasi (Berulang 12x)</t>
+  </si>
+  <si>
+    <t>Saat Proses Depresiasi (Berulang 48x setiap diakhir bulan)</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +263,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +319,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -652,11 +711,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -793,6 +865,69 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,61 +946,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,50 +985,54 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,7 +1349,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1291,11 +1391,11 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -1307,11 +1407,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -1338,42 +1438,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="74" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -1392,8 +1492,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
@@ -1422,10 +1522,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="75">
         <v>44928</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="77" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1461,8 +1561,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -1496,8 +1596,8 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -1527,8 +1627,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -1558,8 +1658,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
@@ -1589,8 +1689,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -1636,6 +1736,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -1644,12 +1750,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -1657,6 +1757,586 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="I2" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="99"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="76">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="76"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="76">
+        <v>44941</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="76"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="76">
+        <v>44946</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="76"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="76">
+        <v>44951</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="76"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="I2" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="99"/>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="76">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="I5" s="9">
+        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="76"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="76">
+        <v>44936</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="76"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="4"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="76">
+        <v>44941</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>800000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="76"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>800000</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="3"/>
+        <v>-800000</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K8"/>
   <sheetViews>
@@ -1679,35 +2359,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="I2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="92"/>
+      <c r="G3" s="99"/>
       <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1719,8 +2399,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1744,10 +2424,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="55">
+      <c r="B5" s="76">
         <v>44928</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="100" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1772,8 +2452,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
-      <c r="C6" s="86"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
@@ -1796,10 +2476,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="55">
+      <c r="B7" s="76">
         <v>44941</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="100" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -1824,8 +2504,8 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="86"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="12" t="s">
@@ -1868,12 +2548,1054 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="1"/>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="81">
+        <v>45261</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>45261</v>
+      </c>
+      <c r="J8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>10000000</v>
+      </c>
+      <c r="L8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="106"/>
+    </row>
+    <row r="9" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H9" s="106"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I14" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>45261</v>
+      </c>
+      <c r="J9" s="109">
+        <f t="shared" ref="J9:N14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="109">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="109">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="O9" s="106"/>
+    </row>
+    <row r="10" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="13">
+        <v>9000000</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
+      <c r="J10" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="109">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="L10" s="109">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="M10" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="109">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="O10" s="106"/>
+    </row>
+    <row r="11" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="79">
+        <v>45280</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="11">
+        <f>10000000/12</f>
+        <v>833333.33333333337</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>45280</v>
+      </c>
+      <c r="J11" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="109">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="L11" s="109">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="M11" s="109">
+        <f t="shared" si="1"/>
+        <v>-833333.33333333337</v>
+      </c>
+      <c r="N11" s="109">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="O11" s="106"/>
+    </row>
+    <row r="12" spans="1:15" s="105" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="13">
+        <f>E11</f>
+        <v>833333.33333333337</v>
+      </c>
+      <c r="H12" s="106"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>45280</v>
+      </c>
+      <c r="J12" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="109">
+        <f t="shared" si="1"/>
+        <v>9166666.666666666</v>
+      </c>
+      <c r="L12" s="109">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="M12" s="109">
+        <f t="shared" si="1"/>
+        <v>-833333.33333333337</v>
+      </c>
+      <c r="N12" s="109">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="O12" s="106"/>
+    </row>
+    <row r="13" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="79">
+        <v>45291</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11">
+        <f>10000000/12</f>
+        <v>833333.33333333337</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="38">
+        <f t="shared" si="0"/>
+        <v>45291</v>
+      </c>
+      <c r="J13" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="109">
+        <f t="shared" si="1"/>
+        <v>9166666.666666666</v>
+      </c>
+      <c r="L13" s="109">
+        <f t="shared" si="1"/>
+        <v>8166666.666666667</v>
+      </c>
+      <c r="M13" s="109">
+        <f t="shared" si="1"/>
+        <v>-833333.33333333337</v>
+      </c>
+      <c r="N13" s="109">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="O13" s="106"/>
+    </row>
+    <row r="14" spans="1:15" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13">
+        <f>E13</f>
+        <v>833333.33333333337</v>
+      </c>
+      <c r="H14" s="106"/>
+      <c r="I14" s="38">
+        <f t="shared" si="0"/>
+        <v>45291</v>
+      </c>
+      <c r="J14" s="107">
+        <f t="shared" si="1"/>
+        <v>-833333.33333333337</v>
+      </c>
+      <c r="K14" s="107">
+        <f t="shared" si="1"/>
+        <v>9166666.666666666</v>
+      </c>
+      <c r="L14" s="108">
+        <f t="shared" si="1"/>
+        <v>8166666.666666667</v>
+      </c>
+      <c r="M14" s="108">
+        <f t="shared" si="1"/>
+        <v>-833333.33333333337</v>
+      </c>
+      <c r="N14" s="108">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33"/>
+      <c r="B5" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="34"/>
+    </row>
+    <row r="8" spans="1:16" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="81">
+        <v>45261</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="38">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), IF(EXACT($B8, ""), I7, $B8), "")</f>
+        <v>45261</v>
+      </c>
+      <c r="J8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(J7), J7, 0) + IF(EXACT(J$7, $D8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(J$7, $F8), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(K7), K7, 0) + IF(EXACT(K$7, $D8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(K$7, $F8), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="L8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(L7), L7, 0) + IF(EXACT(L$7, $D8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(L$7, $F8), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(M7), M7, 0) + IF(EXACT(M$7, $D8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(M$7, $F8), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(N7), N7, 0) + IF(EXACT(N$7, $D8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(N$7, $F8), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="109">
+        <f>IF(OR(NOT(EXACT($E8, "")), NOT(EXACT($G8, ""))), (IF(ISNUMBER(O7), O7, 0) + IF(EXACT(O$7, $D8), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * $E8), IF(EXACT(O$7, $F8), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * -$G8), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="106"/>
+    </row>
+    <row r="9" spans="1:16" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="38">
+        <f t="shared" ref="I9:I14" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <v>45261</v>
+      </c>
+      <c r="J9" s="109">
+        <f t="shared" ref="J9:J13" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="109">
+        <f t="shared" ref="K9:K13" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="109">
+        <f t="shared" ref="L9:L13" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="109">
+        <f t="shared" ref="M9:M13" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>100000</v>
+      </c>
+      <c r="N9" s="109">
+        <f t="shared" ref="N9:N13" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="109">
+        <f t="shared" ref="O9:O13" si="6">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(O8), O8, 0) + IF(EXACT(O$7, $D9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(O$7, $F9), ((IF(EXACT(O$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="106"/>
+    </row>
+    <row r="10" spans="1:16" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1100000</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="38">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
+      <c r="J10" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="109">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="L10" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="109">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N10" s="109">
+        <f t="shared" si="5"/>
+        <v>1100000</v>
+      </c>
+      <c r="O10" s="109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="106"/>
+    </row>
+    <row r="11" spans="1:16" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="79">
+        <v>45280</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1100000</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>45280</v>
+      </c>
+      <c r="J11" s="109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="109">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="L11" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="109">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N11" s="109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="106"/>
+    </row>
+    <row r="12" spans="1:16" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13">
+        <f>E11</f>
+        <v>1100000</v>
+      </c>
+      <c r="H12" s="106"/>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>45280</v>
+      </c>
+      <c r="J12" s="109">
+        <f t="shared" si="1"/>
+        <v>-1100000</v>
+      </c>
+      <c r="K12" s="109">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="109">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N12" s="109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="106"/>
+    </row>
+    <row r="13" spans="1:16" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="79">
+        <v>45291</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="11">
+        <f>10000000/(4*12)</f>
+        <v>208333.33333333334</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="38">
+        <f t="shared" si="0"/>
+        <v>45291</v>
+      </c>
+      <c r="J13" s="109">
+        <f t="shared" si="1"/>
+        <v>-1100000</v>
+      </c>
+      <c r="K13" s="109">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="109">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="N13" s="109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <f t="shared" si="6"/>
+        <v>-208333.33333333334</v>
+      </c>
+      <c r="P13" s="106"/>
+    </row>
+    <row r="14" spans="1:16" s="105" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="13">
+        <f>E13</f>
+        <v>208333.33333333334</v>
+      </c>
+      <c r="H14" s="106"/>
+      <c r="I14" s="38">
+        <f t="shared" si="0"/>
+        <v>45291</v>
+      </c>
+      <c r="J14" s="107">
+        <f t="shared" ref="J14" si="7">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), (IF(ISNUMBER(J13), J13, 0) + IF(EXACT(J$7, $D14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E14), IF(EXACT(J$7, $F14), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G14), 0))), "")</f>
+        <v>-1100000</v>
+      </c>
+      <c r="K14" s="107">
+        <f t="shared" ref="K12:K14" si="8">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), (IF(ISNUMBER(K13), K13, 0) + IF(EXACT(K$7, $D14), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E14), IF(EXACT(K$7, $F14), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G14), 0))), "")</f>
+        <v>1000000</v>
+      </c>
+      <c r="L14" s="107">
+        <f t="shared" ref="L14:O14" si="9">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), (IF(ISNUMBER(L13), L13, 0) + IF(EXACT(L$7, $D14), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E14), IF(EXACT(L$7, $F14), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G14), 0))), "")</f>
+        <v>-208333.33333333334</v>
+      </c>
+      <c r="M14" s="107">
+        <f t="shared" ref="M14" si="10">IF(OR(NOT(EXACT($E14, "")), NOT(EXACT($G14, ""))), (IF(ISNUMBER(M13), M13, 0) + IF(EXACT(M$7, $D14), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E14), IF(EXACT(M$7, $F14), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G14), 0))), "")</f>
+        <v>100000</v>
+      </c>
+      <c r="N14" s="108">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="108">
+        <f t="shared" si="9"/>
+        <v>-208333.33333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1915,11 +3637,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
@@ -1932,11 +3656,11 @@
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -1965,66 +3689,66 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="97" t="s">
+      <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="97" t="s">
+      <c r="M6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="98" t="s">
+      <c r="N6" s="55" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -2038,7 +3762,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="96"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="26" t="s">
         <v>18</v>
       </c>
@@ -2058,10 +3782,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="93">
+      <c r="B8" s="81">
         <v>44928</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="83" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -2101,8 +3825,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="12" t="s">
         <v>43</v>
       </c>
@@ -2117,31 +3841,31 @@
         <v>44928</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ref="J9:J15" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="J9:N15" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" ref="K9:K15" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" ref="L9:L15" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" ref="M9:M15" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" ref="N9:N15" si="5">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(N8), N8, 0) + IF(EXACT(N$7, $D9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(N$7, $F9), ((IF(EXACT(N$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -2160,27 +3884,27 @@
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
@@ -2199,29 +3923,29 @@
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1080000</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58">
+      <c r="B12" s="79">
         <v>44931</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="80" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -2242,27 +3966,27 @@
         <v>0</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12" t="s">
@@ -2281,29 +4005,29 @@
         <v>-1080000</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="58">
+      <c r="B14" s="79">
         <v>44934</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="80" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -2324,26 +4048,26 @@
         <v>-1080000</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="12" t="s">
@@ -2357,35 +4081,35 @@
         <f t="shared" si="0"/>
         <v>44934</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="101">
         <f t="shared" si="1"/>
         <v>-1100000</v>
       </c>
-      <c r="K15" s="8">
-        <f t="shared" si="2"/>
+      <c r="K15" s="101">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="L15" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="4"/>
+      <c r="L15" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="102">
+        <f t="shared" si="1"/>
         <v>-1000000</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" si="5"/>
+      <c r="N15" s="102">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:N5"/>
@@ -2400,15 +4124,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2449,13 +4173,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -2468,11 +4192,11 @@
     <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -2501,43 +4225,43 @@
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="71"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="74" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -2559,8 +4283,8 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +4298,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
@@ -2594,10 +4318,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="79">
+      <c r="B8" s="87">
         <v>44946</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="90" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -2637,8 +4361,8 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -2676,8 +4400,8 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -2715,10 +4439,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="80">
+      <c r="B11" s="88">
         <v>45293</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="93" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -2758,8 +4482,8 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="19" t="s">
         <v>37</v>
       </c>
@@ -2797,8 +4521,8 @@
     </row>
     <row r="13" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="52"/>
       <c r="E13" s="53"/>
       <c r="F13" s="12" t="s">
@@ -2836,10 +4560,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="79">
+      <c r="B14" s="87">
         <v>45311</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="90" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="44" t="s">
@@ -2879,8 +4603,8 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="19" t="s">
@@ -2918,8 +4642,8 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="12" t="s">
@@ -2957,10 +4681,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
-      <c r="B17" s="55">
+      <c r="B17" s="76">
         <v>45316</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="78" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -3000,8 +4724,8 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
       <c r="F18" s="12" t="s">
@@ -3039,10 +4763,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
-      <c r="B19" s="55">
+      <c r="B19" s="76">
         <v>45316</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="80" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -3082,8 +4806,8 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="12" t="s">
@@ -3097,23 +4821,23 @@
         <f t="shared" si="4"/>
         <v>45316</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="103">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="103">
         <f t="shared" si="6"/>
         <v>540000</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="104">
         <f t="shared" si="7"/>
         <v>500000</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="104">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="104">
         <f t="shared" si="7"/>
         <v>-10000</v>
       </c>
@@ -3138,14 +4862,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B17:B18"/>
@@ -3156,21 +4872,29 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3210,13 +4934,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -3228,11 +4952,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
@@ -3259,42 +4983,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="74" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -3313,8 +5037,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -3328,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="39" t="s">
         <v>34</v>
       </c>
@@ -3345,10 +5069,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="79">
+      <c r="B8" s="87">
         <v>44928</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="90" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -3384,8 +5108,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="19" t="s">
@@ -3396,31 +5120,31 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="38">
-        <f t="shared" ref="I9:I14" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
+        <f t="shared" ref="I9:I12" si="0">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), IF(EXACT($B9, ""), I8, $B9), "")</f>
         <v>44928</v>
       </c>
       <c r="J9" s="42">
-        <f t="shared" ref="J9:J14" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="J9:J12" si="1">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(J8), J8, 0) + IF(EXACT(J$7, $D9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(J$7, $F9), ((IF(EXACT(J$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1100000</v>
       </c>
       <c r="K9" s="42">
-        <f t="shared" ref="K9:K14" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="K9:K12" si="2">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(K8), K8, 0) + IF(EXACT(K$7, $D9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(K$7, $F9), ((IF(EXACT(K$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="L9" s="42">
-        <f t="shared" ref="L9:L14" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="L9:L12" si="3">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(L8), L8, 0) + IF(EXACT(L$7, $D9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(L$7, $F9), ((IF(EXACT(L$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>1000000</v>
       </c>
       <c r="M9" s="42">
-        <f t="shared" ref="M9:M14" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
+        <f t="shared" ref="M9:M12" si="4">IF(OR(NOT(EXACT($E9, "")), NOT(EXACT($G9, ""))), (IF(ISNUMBER(M8), M8, 0) + IF(EXACT(M$7, $D9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * $E9), IF(EXACT(M$7, $F9), ((IF(EXACT(M$6, "ACTIVA"), 1, -1)) * -$G9), 0))), "")</f>
         <v>0</v>
       </c>
       <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="12" t="s">
@@ -3454,10 +5178,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="55">
+      <c r="B11" s="76">
         <v>44940</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="78" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -3493,8 +5217,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -3508,19 +5232,19 @@
         <f t="shared" si="0"/>
         <v>44940</v>
       </c>
-      <c r="J12" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="42">
+      <c r="J12" s="103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="103">
         <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="104">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="104">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -3528,84 +5252,26 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K13" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L13" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M13" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K14" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L14" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M14" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -3614,19 +5280,13 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3634,7 +5294,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3675,13 +5335,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -3693,11 +5353,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="32"/>
@@ -3724,42 +5384,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="74" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -3778,8 +5438,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -3793,7 +5453,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
@@ -3810,10 +5470,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="75">
         <v>44941</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="77" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3849,8 +5509,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -3884,10 +5544,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55">
+      <c r="B10" s="76">
         <v>44943</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="78" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -3923,8 +5583,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12" t="s">
@@ -3938,19 +5598,19 @@
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="103">
         <f t="shared" si="2"/>
         <v>-1500000</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="104">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="104">
         <f t="shared" si="5"/>
         <v>-1500000</v>
       </c>
@@ -3974,11 +5634,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -3986,13 +5641,18 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4042,13 +5702,13 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -4060,11 +5720,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="32"/>
@@ -4091,42 +5751,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="74" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -4145,8 +5805,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -4160,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
@@ -4177,10 +5837,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="75">
         <v>44928</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="77" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -4216,8 +5876,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -4251,10 +5911,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55">
+      <c r="B10" s="76">
         <v>44941</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -4290,8 +5950,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="57"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
@@ -4325,8 +5985,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="12" t="s">
@@ -4360,10 +6020,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58">
+      <c r="B13" s="79">
         <v>44943</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -4399,8 +6059,8 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -4450,12 +6110,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I5:M5"/>
@@ -4464,13 +6118,19 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1"/>
@@ -4520,11 +6180,11 @@
       <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="32"/>
@@ -4536,11 +6196,11 @@
     <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29">
         <f ca="1">COUNTIF(OFFSET(I6, 2, 0, 20, 1), "&gt;1")</f>
@@ -4576,42 +6236,42 @@
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
       <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="76" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="74" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35" t="s">
@@ -4630,8 +6290,8 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
@@ -4645,7 +6305,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="34"/>
-      <c r="I7" s="73"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="39" t="s">
         <v>28</v>
       </c>
@@ -4660,10 +6320,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
-      <c r="B8" s="54">
+      <c r="B8" s="75">
         <v>44928</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="77" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -4699,8 +6359,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
@@ -4734,8 +6394,8 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -4765,8 +6425,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -4796,8 +6456,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
@@ -4827,8 +6487,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -4895,6 +6555,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="I5:M5"/>
@@ -4903,592 +6569,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="55">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K12" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6:I12" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="55">
-        <v>44941</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="55">
-        <v>44946</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="55"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="55">
-        <v>44951</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="7">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="0"/>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="55"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="11" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="55">
-        <v>44928</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="9">
-        <f>(IF(ISNUMBER(I4), I4, 0) + IF(EXACT(I$4, $D5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(I$4, $F5), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" ref="J5:K6" si="0">(IF(ISNUMBER(J4), J4, 0) + IF(EXACT(J$4, $D5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E5), IF(EXACT(J$4, $F5), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G5), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" ref="I6" si="1">(IF(ISNUMBER(I5), I5, 0) + IF(EXACT(I$4, $D6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E6), IF(EXACT(I$4, $F6), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G6), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="55">
-        <v>44936</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="7">
-        <f t="shared" ref="I7:I10" si="2">(IF(ISNUMBER(I6), I6, 0) + IF(EXACT(I$4, $D7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(I$4, $F7), ((IF(EXACT(I$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J10" si="3">(IF(ISNUMBER(J6), J6, 0) + IF(EXACT(J$4, $D7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(J$4, $F7), ((IF(EXACT(J$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" ref="K7:K10" si="4">(IF(ISNUMBER(K6), K6, 0) + IF(EXACT(K$4, $D7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * $E7), IF(EXACT(K$4, $F7), ((IF(EXACT(K$3, "ACTIVA"), 1, -1)) * -$G7), 0)))</f>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>200000</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="55">
-        <v>44941</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>800000</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="55"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="13">
-        <v>800000</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>800000</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>-800000</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
